--- a/Documentacion/Product Backlog 1.xlsx
+++ b/Documentacion/Product Backlog 1.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Cecilia Nieto\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natacha Libreros\Desktop\NATACHA\PROGRAMACION\CICLO 3\SPRINT GRUPO 4\Proyecto-Ciclo-3\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A48FEF-038C-46D4-8397-86A184C4D9B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9E0AFECE-A202-40D8-88B6-CCE73A58CA32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Release plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{E81DAB82-1B9C-4343-A2E1-3C2FBE7042D3}">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{E9E36A1B-F35B-4693-90C0-E8C401D258F6}">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{CE7FF04E-9715-470D-9795-1A80F8FCC7EA}">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{C5790D32-55C9-4D7D-B692-94DED5B3BC72}">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{9E5248F6-BC54-437F-AF5E-FA56D07FBE1F}">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>Story ID</t>
   </si>
@@ -177,12 +181,6 @@
     <t>Desarrollo</t>
   </si>
   <si>
-    <t xml:space="preserve">planeado para implementación </t>
-  </si>
-  <si>
-    <t>Sin Impacto</t>
-  </si>
-  <si>
     <t>ID03</t>
   </si>
   <si>
@@ -190,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">Planeado para implementación </t>
-  </si>
-  <si>
-    <t>SIN Impacto</t>
   </si>
   <si>
     <t>ID04</t>
@@ -252,12 +247,100 @@
       <t>AGENDY NAILS</t>
     </r>
   </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Se termino en el sprit 1 el formulario se esta creando una página donde se le asignen permisos al estilista para que agrege nuevos servicios y mueva su agenda de acuerdo a sus citas disponibles.</t>
+  </si>
+  <si>
+    <t>Se termino de desarrollar el formulario en el sprint 2, se desea que llegue al cliente un correo para que confirme su registro</t>
+  </si>
+  <si>
+    <t>Se termino de desarrollar el formulario en el sprint 2, se esta terminando el carrito de compras en el sprint 3 y se desea trabajar en la pasarela de pago</t>
+  </si>
+  <si>
+    <t>Se creo una categorización del portafolio de servicios en el cual se puede ingresar sin estar registrado y se hicieron las conexiones a páginas que amplian la información de cada servicio</t>
+  </si>
+  <si>
+    <t>Se clasificaron los servicios en galeria de imágenes, portafolio y en la agenda, solo falta terminar la funcionalidad de la agenda.</t>
+  </si>
+  <si>
+    <t>Se desea trabajar en una pasarela de pagos donde el cliente pueda cancelar los servicios que desea</t>
+  </si>
+  <si>
+    <t>Ya se definio la sección de noticias</t>
+  </si>
+  <si>
+    <t>Increment Plan</t>
+  </si>
+  <si>
+    <t>Incr.</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Estimated Size</t>
+  </si>
+  <si>
+    <t>Real Size</t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>% Esfuerzo vs Estimación</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>Sprint Plan</t>
+  </si>
+  <si>
+    <t>Increment</t>
+  </si>
+  <si>
+    <t>% Error estimación</t>
+  </si>
+  <si>
+    <t>Unallocated stories</t>
+  </si>
+  <si>
+    <t>Total Size</t>
+  </si>
+  <si>
+    <t>Crear todas las pantallas con HTM y CSS</t>
+  </si>
+  <si>
+    <t>Interfases gráficas de usuario y navegacion entre interfases</t>
+  </si>
+  <si>
+    <t>Ir incrementando el bootstrap y los contenedores para diseño responsive</t>
+  </si>
+  <si>
+    <t>Navegación entre interfases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-240A]dddd\,\ dd&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy;@"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,8 +411,32 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,8 +461,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -458,11 +577,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -518,35 +733,242 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="54"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -642,6 +1064,225 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release Plan"/>
+      <sheetName val="Product Backlog"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="A6">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release Plan"/>
+      <sheetName val="Product Backlog"/>
+      <sheetName val="PB Burndown"/>
+      <sheetName val="Sp1"/>
+      <sheetName val="Sp2"/>
+      <sheetName val="Sp3"/>
+      <sheetName val="Sp4"/>
+      <sheetName val="Task Slips"/>
+      <sheetName val="Task Slip 1"/>
+      <sheetName val="Task Slip 2"/>
+      <sheetName val="Task Slip 3"/>
+      <sheetName val="Task Slip 4"/>
+      <sheetName val="Document Facts"/>
+      <sheetName val="Sprints Schedule"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="D5">
+            <v>3</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="D6">
+            <v>8</v>
+          </cell>
+          <cell r="E6">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="D7">
+            <v>20</v>
+          </cell>
+          <cell r="E7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="D8">
+            <v>13</v>
+          </cell>
+          <cell r="E8">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="D9">
+            <v>13</v>
+          </cell>
+          <cell r="E9">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="D10">
+            <v>13</v>
+          </cell>
+          <cell r="E10">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>Done</v>
+          </cell>
+          <cell r="D11">
+            <v>13</v>
+          </cell>
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>Ongoing</v>
+          </cell>
+          <cell r="D12">
+            <v>8</v>
+          </cell>
+          <cell r="E12">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>Ongoing</v>
+          </cell>
+          <cell r="D13">
+            <v>8</v>
+          </cell>
+          <cell r="E13">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>Planned</v>
+          </cell>
+          <cell r="D14">
+            <v>10</v>
+          </cell>
+          <cell r="E14">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>Removed</v>
+          </cell>
+          <cell r="D15">
+            <v>20</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,45 +1581,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1806E87A-9D8F-49A8-BBEC-FB1D47B8E1D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
-        <v>34</v>
+      <c r="B4" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1035,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E8" s="8">
         <v>9</v>
@@ -1055,10 +1701,12 @@
         <v>3</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="2:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1066,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E9" s="8">
         <v>7</v>
@@ -1081,21 +1729,19 @@
         <v>14</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8">
         <v>7</v>
@@ -1110,21 +1756,19 @@
         <v>14</v>
       </c>
       <c r="I10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="D11" s="11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="8">
         <v>6</v>
@@ -1139,21 +1783,19 @@
         <v>14</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="89.25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" ht="51" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>5</v>
@@ -1168,18 +1810,16 @@
         <v>14</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="89.25" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>11</v>
@@ -1197,19 +1837,19 @@
         <v>14</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="2:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8">
         <v>6</v>
@@ -1224,19 +1864,19 @@
         <v>14</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="2:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" s="8">
         <v>4</v>
@@ -1247,8 +1887,12 @@
       <c r="G15" s="8">
         <v>1</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1269,51 +1913,51 @@
     <mergeCell ref="B4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:J8 J14 J11:J12 B12:I14 C9:I11 B8:B10 B7:J7 B15:J15">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$C7="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$C7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>$C7="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>$C9="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>$C9="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>$C9="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="18" priority="7">
       <formula>$C10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>$C10="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="16" priority="9">
       <formula>$C10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>$C13="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>$C13="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>$C13="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D7:D15" xr:uid="{617C93BE-405E-4E39-811D-2BC8807ECA4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D7:D15">
       <formula1>"Planned,Ongoing,Done,Removed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1321,4 +1965,1510 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="257" max="257" width="7.85546875" customWidth="1"/>
+    <col min="258" max="258" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.7109375" customWidth="1"/>
+    <col min="263" max="263" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="13" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="53" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="14.7109375" customWidth="1"/>
+    <col min="513" max="513" width="7.85546875" customWidth="1"/>
+    <col min="514" max="514" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="10.7109375" customWidth="1"/>
+    <col min="519" max="519" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="13" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="53" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="14.7109375" customWidth="1"/>
+    <col min="769" max="769" width="7.85546875" customWidth="1"/>
+    <col min="770" max="770" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="10.7109375" customWidth="1"/>
+    <col min="775" max="775" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="13" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="53" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="14.7109375" customWidth="1"/>
+    <col min="1025" max="1025" width="7.85546875" customWidth="1"/>
+    <col min="1026" max="1026" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="10.7109375" customWidth="1"/>
+    <col min="1031" max="1031" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="13" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="53" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="14.7109375" customWidth="1"/>
+    <col min="1281" max="1281" width="7.85546875" customWidth="1"/>
+    <col min="1282" max="1282" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="10.7109375" customWidth="1"/>
+    <col min="1287" max="1287" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="13" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="53" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="14.7109375" customWidth="1"/>
+    <col min="1537" max="1537" width="7.85546875" customWidth="1"/>
+    <col min="1538" max="1538" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="10.7109375" customWidth="1"/>
+    <col min="1543" max="1543" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="13" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="53" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="14.7109375" customWidth="1"/>
+    <col min="1793" max="1793" width="7.85546875" customWidth="1"/>
+    <col min="1794" max="1794" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="10.7109375" customWidth="1"/>
+    <col min="1799" max="1799" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="13" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="53" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="14.7109375" customWidth="1"/>
+    <col min="2049" max="2049" width="7.85546875" customWidth="1"/>
+    <col min="2050" max="2050" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="10.7109375" customWidth="1"/>
+    <col min="2055" max="2055" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="13" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="53" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="14.7109375" customWidth="1"/>
+    <col min="2305" max="2305" width="7.85546875" customWidth="1"/>
+    <col min="2306" max="2306" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="10.7109375" customWidth="1"/>
+    <col min="2311" max="2311" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="13" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="53" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="14.7109375" customWidth="1"/>
+    <col min="2561" max="2561" width="7.85546875" customWidth="1"/>
+    <col min="2562" max="2562" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="10.7109375" customWidth="1"/>
+    <col min="2567" max="2567" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="13" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="53" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="14.7109375" customWidth="1"/>
+    <col min="2817" max="2817" width="7.85546875" customWidth="1"/>
+    <col min="2818" max="2818" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="10.7109375" customWidth="1"/>
+    <col min="2823" max="2823" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="13" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="53" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="14.7109375" customWidth="1"/>
+    <col min="3073" max="3073" width="7.85546875" customWidth="1"/>
+    <col min="3074" max="3074" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="10.7109375" customWidth="1"/>
+    <col min="3079" max="3079" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="13" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="53" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="14.7109375" customWidth="1"/>
+    <col min="3329" max="3329" width="7.85546875" customWidth="1"/>
+    <col min="3330" max="3330" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="10.7109375" customWidth="1"/>
+    <col min="3335" max="3335" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="13" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="53" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="14.7109375" customWidth="1"/>
+    <col min="3585" max="3585" width="7.85546875" customWidth="1"/>
+    <col min="3586" max="3586" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="10.7109375" customWidth="1"/>
+    <col min="3591" max="3591" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="13" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="53" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="14.7109375" customWidth="1"/>
+    <col min="3841" max="3841" width="7.85546875" customWidth="1"/>
+    <col min="3842" max="3842" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="10.7109375" customWidth="1"/>
+    <col min="3847" max="3847" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="13" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="53" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="14.7109375" customWidth="1"/>
+    <col min="4097" max="4097" width="7.85546875" customWidth="1"/>
+    <col min="4098" max="4098" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="10.7109375" customWidth="1"/>
+    <col min="4103" max="4103" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="13" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="53" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="14.7109375" customWidth="1"/>
+    <col min="4353" max="4353" width="7.85546875" customWidth="1"/>
+    <col min="4354" max="4354" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="10.7109375" customWidth="1"/>
+    <col min="4359" max="4359" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="13" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="53" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="14.7109375" customWidth="1"/>
+    <col min="4609" max="4609" width="7.85546875" customWidth="1"/>
+    <col min="4610" max="4610" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="10.7109375" customWidth="1"/>
+    <col min="4615" max="4615" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="13" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="53" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="14.7109375" customWidth="1"/>
+    <col min="4865" max="4865" width="7.85546875" customWidth="1"/>
+    <col min="4866" max="4866" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="10.7109375" customWidth="1"/>
+    <col min="4871" max="4871" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="13" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="53" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="14.7109375" customWidth="1"/>
+    <col min="5121" max="5121" width="7.85546875" customWidth="1"/>
+    <col min="5122" max="5122" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="10.7109375" customWidth="1"/>
+    <col min="5127" max="5127" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="13" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="53" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="14.7109375" customWidth="1"/>
+    <col min="5377" max="5377" width="7.85546875" customWidth="1"/>
+    <col min="5378" max="5378" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="10.7109375" customWidth="1"/>
+    <col min="5383" max="5383" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="13" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="53" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="14.7109375" customWidth="1"/>
+    <col min="5633" max="5633" width="7.85546875" customWidth="1"/>
+    <col min="5634" max="5634" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="10.7109375" customWidth="1"/>
+    <col min="5639" max="5639" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="13" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="53" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="14.7109375" customWidth="1"/>
+    <col min="5889" max="5889" width="7.85546875" customWidth="1"/>
+    <col min="5890" max="5890" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="10.7109375" customWidth="1"/>
+    <col min="5895" max="5895" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="13" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="53" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="14.7109375" customWidth="1"/>
+    <col min="6145" max="6145" width="7.85546875" customWidth="1"/>
+    <col min="6146" max="6146" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="10.7109375" customWidth="1"/>
+    <col min="6151" max="6151" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="13" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="53" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="14.7109375" customWidth="1"/>
+    <col min="6401" max="6401" width="7.85546875" customWidth="1"/>
+    <col min="6402" max="6402" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="10.7109375" customWidth="1"/>
+    <col min="6407" max="6407" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="13" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="53" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="14.7109375" customWidth="1"/>
+    <col min="6657" max="6657" width="7.85546875" customWidth="1"/>
+    <col min="6658" max="6658" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="10.7109375" customWidth="1"/>
+    <col min="6663" max="6663" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="13" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="53" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="14.7109375" customWidth="1"/>
+    <col min="6913" max="6913" width="7.85546875" customWidth="1"/>
+    <col min="6914" max="6914" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="10.7109375" customWidth="1"/>
+    <col min="6919" max="6919" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="13" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="53" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="14.7109375" customWidth="1"/>
+    <col min="7169" max="7169" width="7.85546875" customWidth="1"/>
+    <col min="7170" max="7170" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="10.7109375" customWidth="1"/>
+    <col min="7175" max="7175" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="13" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="53" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="14.7109375" customWidth="1"/>
+    <col min="7425" max="7425" width="7.85546875" customWidth="1"/>
+    <col min="7426" max="7426" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="10.7109375" customWidth="1"/>
+    <col min="7431" max="7431" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="13" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="53" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="14.7109375" customWidth="1"/>
+    <col min="7681" max="7681" width="7.85546875" customWidth="1"/>
+    <col min="7682" max="7682" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="10.7109375" customWidth="1"/>
+    <col min="7687" max="7687" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="13" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="53" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="14.7109375" customWidth="1"/>
+    <col min="7937" max="7937" width="7.85546875" customWidth="1"/>
+    <col min="7938" max="7938" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="10.7109375" customWidth="1"/>
+    <col min="7943" max="7943" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="13" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="53" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="14.7109375" customWidth="1"/>
+    <col min="8193" max="8193" width="7.85546875" customWidth="1"/>
+    <col min="8194" max="8194" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="10.7109375" customWidth="1"/>
+    <col min="8199" max="8199" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="13" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="53" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="14.7109375" customWidth="1"/>
+    <col min="8449" max="8449" width="7.85546875" customWidth="1"/>
+    <col min="8450" max="8450" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="10.7109375" customWidth="1"/>
+    <col min="8455" max="8455" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="13" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="53" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="14.7109375" customWidth="1"/>
+    <col min="8705" max="8705" width="7.85546875" customWidth="1"/>
+    <col min="8706" max="8706" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="10.7109375" customWidth="1"/>
+    <col min="8711" max="8711" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="13" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="53" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="14.7109375" customWidth="1"/>
+    <col min="8961" max="8961" width="7.85546875" customWidth="1"/>
+    <col min="8962" max="8962" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="10.7109375" customWidth="1"/>
+    <col min="8967" max="8967" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="13" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="53" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="14.7109375" customWidth="1"/>
+    <col min="9217" max="9217" width="7.85546875" customWidth="1"/>
+    <col min="9218" max="9218" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="10.7109375" customWidth="1"/>
+    <col min="9223" max="9223" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="13" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="53" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="14.7109375" customWidth="1"/>
+    <col min="9473" max="9473" width="7.85546875" customWidth="1"/>
+    <col min="9474" max="9474" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="10.7109375" customWidth="1"/>
+    <col min="9479" max="9479" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="13" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="53" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="14.7109375" customWidth="1"/>
+    <col min="9729" max="9729" width="7.85546875" customWidth="1"/>
+    <col min="9730" max="9730" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="10.7109375" customWidth="1"/>
+    <col min="9735" max="9735" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="13" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="53" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="14.7109375" customWidth="1"/>
+    <col min="9985" max="9985" width="7.85546875" customWidth="1"/>
+    <col min="9986" max="9986" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="10.7109375" customWidth="1"/>
+    <col min="9991" max="9991" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="13" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="53" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="14.7109375" customWidth="1"/>
+    <col min="10241" max="10241" width="7.85546875" customWidth="1"/>
+    <col min="10242" max="10242" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="10.7109375" customWidth="1"/>
+    <col min="10247" max="10247" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="13" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="53" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="14.7109375" customWidth="1"/>
+    <col min="10497" max="10497" width="7.85546875" customWidth="1"/>
+    <col min="10498" max="10498" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="10.7109375" customWidth="1"/>
+    <col min="10503" max="10503" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="13" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="53" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="14.7109375" customWidth="1"/>
+    <col min="10753" max="10753" width="7.85546875" customWidth="1"/>
+    <col min="10754" max="10754" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="10.7109375" customWidth="1"/>
+    <col min="10759" max="10759" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="13" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="53" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="14.7109375" customWidth="1"/>
+    <col min="11009" max="11009" width="7.85546875" customWidth="1"/>
+    <col min="11010" max="11010" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="10.7109375" customWidth="1"/>
+    <col min="11015" max="11015" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="13" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="53" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="14.7109375" customWidth="1"/>
+    <col min="11265" max="11265" width="7.85546875" customWidth="1"/>
+    <col min="11266" max="11266" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="10.7109375" customWidth="1"/>
+    <col min="11271" max="11271" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="13" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="53" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="14.7109375" customWidth="1"/>
+    <col min="11521" max="11521" width="7.85546875" customWidth="1"/>
+    <col min="11522" max="11522" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="10.7109375" customWidth="1"/>
+    <col min="11527" max="11527" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="13" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="53" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="14.7109375" customWidth="1"/>
+    <col min="11777" max="11777" width="7.85546875" customWidth="1"/>
+    <col min="11778" max="11778" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="10.7109375" customWidth="1"/>
+    <col min="11783" max="11783" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="13" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="53" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="14.7109375" customWidth="1"/>
+    <col min="12033" max="12033" width="7.85546875" customWidth="1"/>
+    <col min="12034" max="12034" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="10.7109375" customWidth="1"/>
+    <col min="12039" max="12039" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="13" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="53" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="14.7109375" customWidth="1"/>
+    <col min="12289" max="12289" width="7.85546875" customWidth="1"/>
+    <col min="12290" max="12290" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="10.7109375" customWidth="1"/>
+    <col min="12295" max="12295" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="13" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="53" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="14.7109375" customWidth="1"/>
+    <col min="12545" max="12545" width="7.85546875" customWidth="1"/>
+    <col min="12546" max="12546" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="10.7109375" customWidth="1"/>
+    <col min="12551" max="12551" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="13" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="53" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="14.7109375" customWidth="1"/>
+    <col min="12801" max="12801" width="7.85546875" customWidth="1"/>
+    <col min="12802" max="12802" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="10.7109375" customWidth="1"/>
+    <col min="12807" max="12807" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="13" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="53" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="14.7109375" customWidth="1"/>
+    <col min="13057" max="13057" width="7.85546875" customWidth="1"/>
+    <col min="13058" max="13058" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="10.7109375" customWidth="1"/>
+    <col min="13063" max="13063" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="13" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="53" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="14.7109375" customWidth="1"/>
+    <col min="13313" max="13313" width="7.85546875" customWidth="1"/>
+    <col min="13314" max="13314" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="10.7109375" customWidth="1"/>
+    <col min="13319" max="13319" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="13" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="53" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="14.7109375" customWidth="1"/>
+    <col min="13569" max="13569" width="7.85546875" customWidth="1"/>
+    <col min="13570" max="13570" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="10.7109375" customWidth="1"/>
+    <col min="13575" max="13575" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="13" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="53" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="14.7109375" customWidth="1"/>
+    <col min="13825" max="13825" width="7.85546875" customWidth="1"/>
+    <col min="13826" max="13826" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="10.7109375" customWidth="1"/>
+    <col min="13831" max="13831" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="13" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="53" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="14.7109375" customWidth="1"/>
+    <col min="14081" max="14081" width="7.85546875" customWidth="1"/>
+    <col min="14082" max="14082" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="10.7109375" customWidth="1"/>
+    <col min="14087" max="14087" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="13" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="53" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="14.7109375" customWidth="1"/>
+    <col min="14337" max="14337" width="7.85546875" customWidth="1"/>
+    <col min="14338" max="14338" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="10.7109375" customWidth="1"/>
+    <col min="14343" max="14343" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="13" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="53" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="14.7109375" customWidth="1"/>
+    <col min="14593" max="14593" width="7.85546875" customWidth="1"/>
+    <col min="14594" max="14594" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="10.7109375" customWidth="1"/>
+    <col min="14599" max="14599" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="13" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="53" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="14.7109375" customWidth="1"/>
+    <col min="14849" max="14849" width="7.85546875" customWidth="1"/>
+    <col min="14850" max="14850" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="10.7109375" customWidth="1"/>
+    <col min="14855" max="14855" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="13" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="53" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="14.7109375" customWidth="1"/>
+    <col min="15105" max="15105" width="7.85546875" customWidth="1"/>
+    <col min="15106" max="15106" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="10.7109375" customWidth="1"/>
+    <col min="15111" max="15111" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="13" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="53" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="14.7109375" customWidth="1"/>
+    <col min="15361" max="15361" width="7.85546875" customWidth="1"/>
+    <col min="15362" max="15362" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="10.7109375" customWidth="1"/>
+    <col min="15367" max="15367" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="13" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="53" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="14.7109375" customWidth="1"/>
+    <col min="15617" max="15617" width="7.85546875" customWidth="1"/>
+    <col min="15618" max="15618" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="10.7109375" customWidth="1"/>
+    <col min="15623" max="15623" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="13" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="53" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="14.7109375" customWidth="1"/>
+    <col min="15873" max="15873" width="7.85546875" customWidth="1"/>
+    <col min="15874" max="15874" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="10.7109375" customWidth="1"/>
+    <col min="15879" max="15879" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="13" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="53" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="14.7109375" customWidth="1"/>
+    <col min="16129" max="16129" width="7.85546875" customWidth="1"/>
+    <col min="16130" max="16130" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="10.7109375" customWidth="1"/>
+    <col min="16135" max="16135" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="13" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="53" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="3" spans="1:11" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34">
+        <f>IF(OR(B16="",A4=""),"",B16)</f>
+        <v>44452</v>
+      </c>
+      <c r="C4" s="33">
+        <f>IF(A4="","",SUMIF(J$16:J$16,A4,C$16:C$16))</f>
+        <v>7</v>
+      </c>
+      <c r="D4" s="34">
+        <f>IF(OR(B4="",C4=""),"",B4+C4-1)</f>
+        <v>44458</v>
+      </c>
+      <c r="E4" s="33">
+        <v>10</v>
+      </c>
+      <c r="F4" s="33">
+        <v>15</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="36">
+        <v>44465</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="38">
+        <f>(F4/E4)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34">
+        <f>IF(A5="","",B4+C4)</f>
+        <v>44459</v>
+      </c>
+      <c r="C5" s="33">
+        <f>IF(A5="","",SUMIF(J$16:J$17,A5,C$16:C$17))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" ref="D4:D10" si="0">IF(OR(B5="",C5=""),"",B5+C5-1)</f>
+        <v>44458</v>
+      </c>
+      <c r="E5" s="33">
+        <v>14</v>
+      </c>
+      <c r="F5" s="33">
+        <v>15</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="36">
+        <v>44465</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="38">
+        <f>(F5/E5)</f>
+        <v>1.0714285714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34">
+        <f>IF(A6="","",B5+C5)</f>
+        <v>44459</v>
+      </c>
+      <c r="C6" s="33">
+        <f>IF(A6="","",SUMIF(J$16:J$18,A6,C$16:C$18))</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" si="0"/>
+        <v>44458</v>
+      </c>
+      <c r="E6" s="33">
+        <f>IF(A6="","",SUMIF(J$16:J$30,'[1]Release Plan'!A6,E$16:E$30))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <f>IF(A6="","",SUMIF(J$16:J$30,'[1]Release Plan'!A6,F$16:F$30))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="str">
+        <f t="shared" ref="C4:C10" si="1">IF(A7="","",SUMIF(J$16:J$30,A7,C$16:C$30))</f>
+        <v/>
+      </c>
+      <c r="D7" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="41" t="str">
+        <f>IF(A7="","",SUMIF(J$16:J$30,'[1]Release Plan'!A7,E$16:E$30))</f>
+        <v/>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="str">
+        <f>IF(OR(B20="",A8=""),"",B20)</f>
+        <v/>
+      </c>
+      <c r="C8" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D8" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="41" t="str">
+        <f>IF(A8="","",SUMIF(J$16:J$30,'[1]Release Plan'!A8,E$16:E$30))</f>
+        <v/>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D9" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="41" t="str">
+        <f>IF(A9="","",SUMIF(J$16:J$30,'[1]Release Plan'!A9,E$16:E$30))</f>
+        <v/>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D10" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="48" t="str">
+        <f>IF(A10="","",SUMIF(J$16:J$30,'[1]Release Plan'!A10,E$16:E$30))</f>
+        <v/>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>1</v>
+      </c>
+      <c r="B16" s="34">
+        <v>44452</v>
+      </c>
+      <c r="C16" s="54">
+        <v>7</v>
+      </c>
+      <c r="D16" s="34">
+        <v>44465</v>
+      </c>
+      <c r="E16" s="33">
+        <v>10</v>
+      </c>
+      <c r="F16" s="33">
+        <v>15</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="55">
+        <v>44465</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="54">
+        <v>1</v>
+      </c>
+      <c r="K16" s="38">
+        <f>(F16/E16)-1</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>2</v>
+      </c>
+      <c r="B17" s="34">
+        <v>44452</v>
+      </c>
+      <c r="C17" s="54">
+        <v>14</v>
+      </c>
+      <c r="D17" s="34">
+        <f>IF(AND(B17&lt;&gt;"",C17&lt;&gt;""),B17+C17-1,"")</f>
+        <v>44465</v>
+      </c>
+      <c r="E17" s="33">
+        <v>14</v>
+      </c>
+      <c r="F17" s="33">
+        <v>15</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="57">
+        <v>44465</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="54">
+        <v>1</v>
+      </c>
+      <c r="K17" s="38">
+        <f>(F17/E17)-1</f>
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>3</v>
+      </c>
+      <c r="B18" s="34">
+        <v>44459</v>
+      </c>
+      <c r="C18" s="54">
+        <v>14</v>
+      </c>
+      <c r="D18" s="34">
+        <f>IF(AND(B18&lt;&gt;"",C18&lt;&gt;""),B18+C18-1,"")</f>
+        <v>44472</v>
+      </c>
+      <c r="E18" s="33">
+        <v>23</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="54">
+        <v>1</v>
+      </c>
+      <c r="K18" s="38">
+        <f>(F18/E18)-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>4</v>
+      </c>
+      <c r="B19" s="34">
+        <v>44466</v>
+      </c>
+      <c r="C19" s="54">
+        <v>14</v>
+      </c>
+      <c r="D19" s="34">
+        <f>IF(AND(B19&lt;&gt;"",C19&lt;&gt;""),B19+C19-1,"")</f>
+        <v>44479</v>
+      </c>
+      <c r="E19" s="33">
+        <v>6</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="54">
+        <v>2</v>
+      </c>
+      <c r="K19" s="38">
+        <f>(F19/E19)-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>5</v>
+      </c>
+      <c r="B20" s="34">
+        <v>44473</v>
+      </c>
+      <c r="C20" s="54">
+        <v>7</v>
+      </c>
+      <c r="D20" s="34">
+        <f>IF(AND(B20&lt;&gt;"",C20&lt;&gt;""),B20+C20-1,"")</f>
+        <v>44479</v>
+      </c>
+      <c r="E20" s="33">
+        <v>0</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="54">
+        <v>2</v>
+      </c>
+      <c r="K20" s="38" t="e">
+        <f>(F20/E20)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>6</v>
+      </c>
+      <c r="B21" s="34">
+        <v>44480</v>
+      </c>
+      <c r="C21" s="54">
+        <v>14</v>
+      </c>
+      <c r="D21" s="34">
+        <f>IF(AND(B21&lt;&gt;"",C21&lt;&gt;""),B21+C21-1,"")</f>
+        <v>44493</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="54">
+        <v>3</v>
+      </c>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="59" t="str">
+        <f t="shared" ref="B17:B30" si="2">IF(AND(B21&lt;&gt;"",C21&lt;&gt;"",C22&lt;&gt;""),B21+C21,"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="59" t="str">
+        <f t="shared" ref="D16:D30" si="3">IF(AND(B22&lt;&gt;"",C22&lt;&gt;""),B22+C22-1,"")</f>
+        <v/>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" t="str">
+        <f t="shared" ref="G22:G30" si="4">IF(AND(OR(G21="Planned",G21="Ongoing"),C22&lt;&gt;""),"Planned","Unplanned")</f>
+        <v>Unplanned</v>
+      </c>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="str">
+        <f>IF(AND(B23&lt;&gt;"",C23&lt;&gt;""),A22+1,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E23" s="41" t="str">
+        <f>IF(A23="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A23,'[2]Product Backlog'!D$5:D$79))</f>
+        <v/>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="I23" s="63"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="str">
+        <f t="shared" ref="A24:A30" si="5">IF(AND(B24&lt;&gt;"",C24&lt;&gt;""),A23+1,"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E24" s="41" t="str">
+        <f>IF(A24="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A24,'[2]Product Backlog'!D$5:D$79))</f>
+        <v/>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="I24" s="63"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="45"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B25" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E25" s="41" t="str">
+        <f>IF(A25="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A25,'[2]Product Backlog'!D$5:D$79))</f>
+        <v/>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="I25" s="63"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="45"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B26" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E26" s="41" t="str">
+        <f>IF(A26="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A26,'[2]Product Backlog'!D$5:D$79))</f>
+        <v/>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="I26" s="63"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B27" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E27" s="41" t="str">
+        <f>IF(A27="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A27,'[2]Product Backlog'!D$5:D$79))</f>
+        <v/>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="I27" s="63"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="45"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B28" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E28" s="41" t="str">
+        <f>IF(A28="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A28,'[2]Product Backlog'!D$5:D$79))</f>
+        <v/>
+      </c>
+      <c r="F28" s="41"/>
+      <c r="G28" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="I28" s="63"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="45"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B29" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E29" s="41" t="str">
+        <f>IF(A29="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A29,'[2]Product Backlog'!D$5:D$79))</f>
+        <v/>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="I29" s="63"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="45"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B30" s="59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E30" s="41" t="str">
+        <f>IF(A30="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A30,'[2]Product Backlog'!D$5:D$79))</f>
+        <v/>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" t="str">
+        <f t="shared" si="4"/>
+        <v>Unplanned</v>
+      </c>
+      <c r="I30" s="64"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="52"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="71" t="e">
+        <f>SUMIF('[2]Product Backlog'!E$5:E$79,"",'[2]Product Backlog'!D$5:D$79)-SUMIF('[2]Product Backlog'!C$5:C$79,"Removed",'[2]Product Backlog'!D$5:D$79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="68"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="66"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="68">
+        <f>SUM(E16:E30)</f>
+        <v>53</v>
+      </c>
+      <c r="F32" s="68">
+        <f>SUM(F16:F30)</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H4:I10 E5:F10 E31:F32 A4:D10">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+      <formula>$G4="Planned"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+      <formula>$G4="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G10 G16:G30">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+      <formula>$G4="Planned"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>$G4="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Unplanned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:F30 E4:F5 F6 H16:I30">
+    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
+      <formula>OR($G4="Planned",$G4="Unplanned")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="13" stopIfTrue="1">
+      <formula>$G4="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B21">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>$G16="Planned"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>$G16="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B21">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$G16="Planned"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>$G16="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$G16="Planned"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$G16="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G10 JC4:JC10 SY4:SY10 ACU4:ACU10 AMQ4:AMQ10 AWM4:AWM10 BGI4:BGI10 BQE4:BQE10 CAA4:CAA10 CJW4:CJW10 CTS4:CTS10 DDO4:DDO10 DNK4:DNK10 DXG4:DXG10 EHC4:EHC10 EQY4:EQY10 FAU4:FAU10 FKQ4:FKQ10 FUM4:FUM10 GEI4:GEI10 GOE4:GOE10 GYA4:GYA10 HHW4:HHW10 HRS4:HRS10 IBO4:IBO10 ILK4:ILK10 IVG4:IVG10 JFC4:JFC10 JOY4:JOY10 JYU4:JYU10 KIQ4:KIQ10 KSM4:KSM10 LCI4:LCI10 LME4:LME10 LWA4:LWA10 MFW4:MFW10 MPS4:MPS10 MZO4:MZO10 NJK4:NJK10 NTG4:NTG10 ODC4:ODC10 OMY4:OMY10 OWU4:OWU10 PGQ4:PGQ10 PQM4:PQM10 QAI4:QAI10 QKE4:QKE10 QUA4:QUA10 RDW4:RDW10 RNS4:RNS10 RXO4:RXO10 SHK4:SHK10 SRG4:SRG10 TBC4:TBC10 TKY4:TKY10 TUU4:TUU10 UEQ4:UEQ10 UOM4:UOM10 UYI4:UYI10 VIE4:VIE10 VSA4:VSA10 WBW4:WBW10 WLS4:WLS10 WVO4:WVO10 G65540:G65546 JC65540:JC65546 SY65540:SY65546 ACU65540:ACU65546 AMQ65540:AMQ65546 AWM65540:AWM65546 BGI65540:BGI65546 BQE65540:BQE65546 CAA65540:CAA65546 CJW65540:CJW65546 CTS65540:CTS65546 DDO65540:DDO65546 DNK65540:DNK65546 DXG65540:DXG65546 EHC65540:EHC65546 EQY65540:EQY65546 FAU65540:FAU65546 FKQ65540:FKQ65546 FUM65540:FUM65546 GEI65540:GEI65546 GOE65540:GOE65546 GYA65540:GYA65546 HHW65540:HHW65546 HRS65540:HRS65546 IBO65540:IBO65546 ILK65540:ILK65546 IVG65540:IVG65546 JFC65540:JFC65546 JOY65540:JOY65546 JYU65540:JYU65546 KIQ65540:KIQ65546 KSM65540:KSM65546 LCI65540:LCI65546 LME65540:LME65546 LWA65540:LWA65546 MFW65540:MFW65546 MPS65540:MPS65546 MZO65540:MZO65546 NJK65540:NJK65546 NTG65540:NTG65546 ODC65540:ODC65546 OMY65540:OMY65546 OWU65540:OWU65546 PGQ65540:PGQ65546 PQM65540:PQM65546 QAI65540:QAI65546 QKE65540:QKE65546 QUA65540:QUA65546 RDW65540:RDW65546 RNS65540:RNS65546 RXO65540:RXO65546 SHK65540:SHK65546 SRG65540:SRG65546 TBC65540:TBC65546 TKY65540:TKY65546 TUU65540:TUU65546 UEQ65540:UEQ65546 UOM65540:UOM65546 UYI65540:UYI65546 VIE65540:VIE65546 VSA65540:VSA65546 WBW65540:WBW65546 WLS65540:WLS65546 WVO65540:WVO65546 G131076:G131082 JC131076:JC131082 SY131076:SY131082 ACU131076:ACU131082 AMQ131076:AMQ131082 AWM131076:AWM131082 BGI131076:BGI131082 BQE131076:BQE131082 CAA131076:CAA131082 CJW131076:CJW131082 CTS131076:CTS131082 DDO131076:DDO131082 DNK131076:DNK131082 DXG131076:DXG131082 EHC131076:EHC131082 EQY131076:EQY131082 FAU131076:FAU131082 FKQ131076:FKQ131082 FUM131076:FUM131082 GEI131076:GEI131082 GOE131076:GOE131082 GYA131076:GYA131082 HHW131076:HHW131082 HRS131076:HRS131082 IBO131076:IBO131082 ILK131076:ILK131082 IVG131076:IVG131082 JFC131076:JFC131082 JOY131076:JOY131082 JYU131076:JYU131082 KIQ131076:KIQ131082 KSM131076:KSM131082 LCI131076:LCI131082 LME131076:LME131082 LWA131076:LWA131082 MFW131076:MFW131082 MPS131076:MPS131082 MZO131076:MZO131082 NJK131076:NJK131082 NTG131076:NTG131082 ODC131076:ODC131082 OMY131076:OMY131082 OWU131076:OWU131082 PGQ131076:PGQ131082 PQM131076:PQM131082 QAI131076:QAI131082 QKE131076:QKE131082 QUA131076:QUA131082 RDW131076:RDW131082 RNS131076:RNS131082 RXO131076:RXO131082 SHK131076:SHK131082 SRG131076:SRG131082 TBC131076:TBC131082 TKY131076:TKY131082 TUU131076:TUU131082 UEQ131076:UEQ131082 UOM131076:UOM131082 UYI131076:UYI131082 VIE131076:VIE131082 VSA131076:VSA131082 WBW131076:WBW131082 WLS131076:WLS131082 WVO131076:WVO131082 G196612:G196618 JC196612:JC196618 SY196612:SY196618 ACU196612:ACU196618 AMQ196612:AMQ196618 AWM196612:AWM196618 BGI196612:BGI196618 BQE196612:BQE196618 CAA196612:CAA196618 CJW196612:CJW196618 CTS196612:CTS196618 DDO196612:DDO196618 DNK196612:DNK196618 DXG196612:DXG196618 EHC196612:EHC196618 EQY196612:EQY196618 FAU196612:FAU196618 FKQ196612:FKQ196618 FUM196612:FUM196618 GEI196612:GEI196618 GOE196612:GOE196618 GYA196612:GYA196618 HHW196612:HHW196618 HRS196612:HRS196618 IBO196612:IBO196618 ILK196612:ILK196618 IVG196612:IVG196618 JFC196612:JFC196618 JOY196612:JOY196618 JYU196612:JYU196618 KIQ196612:KIQ196618 KSM196612:KSM196618 LCI196612:LCI196618 LME196612:LME196618 LWA196612:LWA196618 MFW196612:MFW196618 MPS196612:MPS196618 MZO196612:MZO196618 NJK196612:NJK196618 NTG196612:NTG196618 ODC196612:ODC196618 OMY196612:OMY196618 OWU196612:OWU196618 PGQ196612:PGQ196618 PQM196612:PQM196618 QAI196612:QAI196618 QKE196612:QKE196618 QUA196612:QUA196618 RDW196612:RDW196618 RNS196612:RNS196618 RXO196612:RXO196618 SHK196612:SHK196618 SRG196612:SRG196618 TBC196612:TBC196618 TKY196612:TKY196618 TUU196612:TUU196618 UEQ196612:UEQ196618 UOM196612:UOM196618 UYI196612:UYI196618 VIE196612:VIE196618 VSA196612:VSA196618 WBW196612:WBW196618 WLS196612:WLS196618 WVO196612:WVO196618 G262148:G262154 JC262148:JC262154 SY262148:SY262154 ACU262148:ACU262154 AMQ262148:AMQ262154 AWM262148:AWM262154 BGI262148:BGI262154 BQE262148:BQE262154 CAA262148:CAA262154 CJW262148:CJW262154 CTS262148:CTS262154 DDO262148:DDO262154 DNK262148:DNK262154 DXG262148:DXG262154 EHC262148:EHC262154 EQY262148:EQY262154 FAU262148:FAU262154 FKQ262148:FKQ262154 FUM262148:FUM262154 GEI262148:GEI262154 GOE262148:GOE262154 GYA262148:GYA262154 HHW262148:HHW262154 HRS262148:HRS262154 IBO262148:IBO262154 ILK262148:ILK262154 IVG262148:IVG262154 JFC262148:JFC262154 JOY262148:JOY262154 JYU262148:JYU262154 KIQ262148:KIQ262154 KSM262148:KSM262154 LCI262148:LCI262154 LME262148:LME262154 LWA262148:LWA262154 MFW262148:MFW262154 MPS262148:MPS262154 MZO262148:MZO262154 NJK262148:NJK262154 NTG262148:NTG262154 ODC262148:ODC262154 OMY262148:OMY262154 OWU262148:OWU262154 PGQ262148:PGQ262154 PQM262148:PQM262154 QAI262148:QAI262154 QKE262148:QKE262154 QUA262148:QUA262154 RDW262148:RDW262154 RNS262148:RNS262154 RXO262148:RXO262154 SHK262148:SHK262154 SRG262148:SRG262154 TBC262148:TBC262154 TKY262148:TKY262154 TUU262148:TUU262154 UEQ262148:UEQ262154 UOM262148:UOM262154 UYI262148:UYI262154 VIE262148:VIE262154 VSA262148:VSA262154 WBW262148:WBW262154 WLS262148:WLS262154 WVO262148:WVO262154 G327684:G327690 JC327684:JC327690 SY327684:SY327690 ACU327684:ACU327690 AMQ327684:AMQ327690 AWM327684:AWM327690 BGI327684:BGI327690 BQE327684:BQE327690 CAA327684:CAA327690 CJW327684:CJW327690 CTS327684:CTS327690 DDO327684:DDO327690 DNK327684:DNK327690 DXG327684:DXG327690 EHC327684:EHC327690 EQY327684:EQY327690 FAU327684:FAU327690 FKQ327684:FKQ327690 FUM327684:FUM327690 GEI327684:GEI327690 GOE327684:GOE327690 GYA327684:GYA327690 HHW327684:HHW327690 HRS327684:HRS327690 IBO327684:IBO327690 ILK327684:ILK327690 IVG327684:IVG327690 JFC327684:JFC327690 JOY327684:JOY327690 JYU327684:JYU327690 KIQ327684:KIQ327690 KSM327684:KSM327690 LCI327684:LCI327690 LME327684:LME327690 LWA327684:LWA327690 MFW327684:MFW327690 MPS327684:MPS327690 MZO327684:MZO327690 NJK327684:NJK327690 NTG327684:NTG327690 ODC327684:ODC327690 OMY327684:OMY327690 OWU327684:OWU327690 PGQ327684:PGQ327690 PQM327684:PQM327690 QAI327684:QAI327690 QKE327684:QKE327690 QUA327684:QUA327690 RDW327684:RDW327690 RNS327684:RNS327690 RXO327684:RXO327690 SHK327684:SHK327690 SRG327684:SRG327690 TBC327684:TBC327690 TKY327684:TKY327690 TUU327684:TUU327690 UEQ327684:UEQ327690 UOM327684:UOM327690 UYI327684:UYI327690 VIE327684:VIE327690 VSA327684:VSA327690 WBW327684:WBW327690 WLS327684:WLS327690 WVO327684:WVO327690 G393220:G393226 JC393220:JC393226 SY393220:SY393226 ACU393220:ACU393226 AMQ393220:AMQ393226 AWM393220:AWM393226 BGI393220:BGI393226 BQE393220:BQE393226 CAA393220:CAA393226 CJW393220:CJW393226 CTS393220:CTS393226 DDO393220:DDO393226 DNK393220:DNK393226 DXG393220:DXG393226 EHC393220:EHC393226 EQY393220:EQY393226 FAU393220:FAU393226 FKQ393220:FKQ393226 FUM393220:FUM393226 GEI393220:GEI393226 GOE393220:GOE393226 GYA393220:GYA393226 HHW393220:HHW393226 HRS393220:HRS393226 IBO393220:IBO393226 ILK393220:ILK393226 IVG393220:IVG393226 JFC393220:JFC393226 JOY393220:JOY393226 JYU393220:JYU393226 KIQ393220:KIQ393226 KSM393220:KSM393226 LCI393220:LCI393226 LME393220:LME393226 LWA393220:LWA393226 MFW393220:MFW393226 MPS393220:MPS393226 MZO393220:MZO393226 NJK393220:NJK393226 NTG393220:NTG393226 ODC393220:ODC393226 OMY393220:OMY393226 OWU393220:OWU393226 PGQ393220:PGQ393226 PQM393220:PQM393226 QAI393220:QAI393226 QKE393220:QKE393226 QUA393220:QUA393226 RDW393220:RDW393226 RNS393220:RNS393226 RXO393220:RXO393226 SHK393220:SHK393226 SRG393220:SRG393226 TBC393220:TBC393226 TKY393220:TKY393226 TUU393220:TUU393226 UEQ393220:UEQ393226 UOM393220:UOM393226 UYI393220:UYI393226 VIE393220:VIE393226 VSA393220:VSA393226 WBW393220:WBW393226 WLS393220:WLS393226 WVO393220:WVO393226 G458756:G458762 JC458756:JC458762 SY458756:SY458762 ACU458756:ACU458762 AMQ458756:AMQ458762 AWM458756:AWM458762 BGI458756:BGI458762 BQE458756:BQE458762 CAA458756:CAA458762 CJW458756:CJW458762 CTS458756:CTS458762 DDO458756:DDO458762 DNK458756:DNK458762 DXG458756:DXG458762 EHC458756:EHC458762 EQY458756:EQY458762 FAU458756:FAU458762 FKQ458756:FKQ458762 FUM458756:FUM458762 GEI458756:GEI458762 GOE458756:GOE458762 GYA458756:GYA458762 HHW458756:HHW458762 HRS458756:HRS458762 IBO458756:IBO458762 ILK458756:ILK458762 IVG458756:IVG458762 JFC458756:JFC458762 JOY458756:JOY458762 JYU458756:JYU458762 KIQ458756:KIQ458762 KSM458756:KSM458762 LCI458756:LCI458762 LME458756:LME458762 LWA458756:LWA458762 MFW458756:MFW458762 MPS458756:MPS458762 MZO458756:MZO458762 NJK458756:NJK458762 NTG458756:NTG458762 ODC458756:ODC458762 OMY458756:OMY458762 OWU458756:OWU458762 PGQ458756:PGQ458762 PQM458756:PQM458762 QAI458756:QAI458762 QKE458756:QKE458762 QUA458756:QUA458762 RDW458756:RDW458762 RNS458756:RNS458762 RXO458756:RXO458762 SHK458756:SHK458762 SRG458756:SRG458762 TBC458756:TBC458762 TKY458756:TKY458762 TUU458756:TUU458762 UEQ458756:UEQ458762 UOM458756:UOM458762 UYI458756:UYI458762 VIE458756:VIE458762 VSA458756:VSA458762 WBW458756:WBW458762 WLS458756:WLS458762 WVO458756:WVO458762 G524292:G524298 JC524292:JC524298 SY524292:SY524298 ACU524292:ACU524298 AMQ524292:AMQ524298 AWM524292:AWM524298 BGI524292:BGI524298 BQE524292:BQE524298 CAA524292:CAA524298 CJW524292:CJW524298 CTS524292:CTS524298 DDO524292:DDO524298 DNK524292:DNK524298 DXG524292:DXG524298 EHC524292:EHC524298 EQY524292:EQY524298 FAU524292:FAU524298 FKQ524292:FKQ524298 FUM524292:FUM524298 GEI524292:GEI524298 GOE524292:GOE524298 GYA524292:GYA524298 HHW524292:HHW524298 HRS524292:HRS524298 IBO524292:IBO524298 ILK524292:ILK524298 IVG524292:IVG524298 JFC524292:JFC524298 JOY524292:JOY524298 JYU524292:JYU524298 KIQ524292:KIQ524298 KSM524292:KSM524298 LCI524292:LCI524298 LME524292:LME524298 LWA524292:LWA524298 MFW524292:MFW524298 MPS524292:MPS524298 MZO524292:MZO524298 NJK524292:NJK524298 NTG524292:NTG524298 ODC524292:ODC524298 OMY524292:OMY524298 OWU524292:OWU524298 PGQ524292:PGQ524298 PQM524292:PQM524298 QAI524292:QAI524298 QKE524292:QKE524298 QUA524292:QUA524298 RDW524292:RDW524298 RNS524292:RNS524298 RXO524292:RXO524298 SHK524292:SHK524298 SRG524292:SRG524298 TBC524292:TBC524298 TKY524292:TKY524298 TUU524292:TUU524298 UEQ524292:UEQ524298 UOM524292:UOM524298 UYI524292:UYI524298 VIE524292:VIE524298 VSA524292:VSA524298 WBW524292:WBW524298 WLS524292:WLS524298 WVO524292:WVO524298 G589828:G589834 JC589828:JC589834 SY589828:SY589834 ACU589828:ACU589834 AMQ589828:AMQ589834 AWM589828:AWM589834 BGI589828:BGI589834 BQE589828:BQE589834 CAA589828:CAA589834 CJW589828:CJW589834 CTS589828:CTS589834 DDO589828:DDO589834 DNK589828:DNK589834 DXG589828:DXG589834 EHC589828:EHC589834 EQY589828:EQY589834 FAU589828:FAU589834 FKQ589828:FKQ589834 FUM589828:FUM589834 GEI589828:GEI589834 GOE589828:GOE589834 GYA589828:GYA589834 HHW589828:HHW589834 HRS589828:HRS589834 IBO589828:IBO589834 ILK589828:ILK589834 IVG589828:IVG589834 JFC589828:JFC589834 JOY589828:JOY589834 JYU589828:JYU589834 KIQ589828:KIQ589834 KSM589828:KSM589834 LCI589828:LCI589834 LME589828:LME589834 LWA589828:LWA589834 MFW589828:MFW589834 MPS589828:MPS589834 MZO589828:MZO589834 NJK589828:NJK589834 NTG589828:NTG589834 ODC589828:ODC589834 OMY589828:OMY589834 OWU589828:OWU589834 PGQ589828:PGQ589834 PQM589828:PQM589834 QAI589828:QAI589834 QKE589828:QKE589834 QUA589828:QUA589834 RDW589828:RDW589834 RNS589828:RNS589834 RXO589828:RXO589834 SHK589828:SHK589834 SRG589828:SRG589834 TBC589828:TBC589834 TKY589828:TKY589834 TUU589828:TUU589834 UEQ589828:UEQ589834 UOM589828:UOM589834 UYI589828:UYI589834 VIE589828:VIE589834 VSA589828:VSA589834 WBW589828:WBW589834 WLS589828:WLS589834 WVO589828:WVO589834 G655364:G655370 JC655364:JC655370 SY655364:SY655370 ACU655364:ACU655370 AMQ655364:AMQ655370 AWM655364:AWM655370 BGI655364:BGI655370 BQE655364:BQE655370 CAA655364:CAA655370 CJW655364:CJW655370 CTS655364:CTS655370 DDO655364:DDO655370 DNK655364:DNK655370 DXG655364:DXG655370 EHC655364:EHC655370 EQY655364:EQY655370 FAU655364:FAU655370 FKQ655364:FKQ655370 FUM655364:FUM655370 GEI655364:GEI655370 GOE655364:GOE655370 GYA655364:GYA655370 HHW655364:HHW655370 HRS655364:HRS655370 IBO655364:IBO655370 ILK655364:ILK655370 IVG655364:IVG655370 JFC655364:JFC655370 JOY655364:JOY655370 JYU655364:JYU655370 KIQ655364:KIQ655370 KSM655364:KSM655370 LCI655364:LCI655370 LME655364:LME655370 LWA655364:LWA655370 MFW655364:MFW655370 MPS655364:MPS655370 MZO655364:MZO655370 NJK655364:NJK655370 NTG655364:NTG655370 ODC655364:ODC655370 OMY655364:OMY655370 OWU655364:OWU655370 PGQ655364:PGQ655370 PQM655364:PQM655370 QAI655364:QAI655370 QKE655364:QKE655370 QUA655364:QUA655370 RDW655364:RDW655370 RNS655364:RNS655370 RXO655364:RXO655370 SHK655364:SHK655370 SRG655364:SRG655370 TBC655364:TBC655370 TKY655364:TKY655370 TUU655364:TUU655370 UEQ655364:UEQ655370 UOM655364:UOM655370 UYI655364:UYI655370 VIE655364:VIE655370 VSA655364:VSA655370 WBW655364:WBW655370 WLS655364:WLS655370 WVO655364:WVO655370 G720900:G720906 JC720900:JC720906 SY720900:SY720906 ACU720900:ACU720906 AMQ720900:AMQ720906 AWM720900:AWM720906 BGI720900:BGI720906 BQE720900:BQE720906 CAA720900:CAA720906 CJW720900:CJW720906 CTS720900:CTS720906 DDO720900:DDO720906 DNK720900:DNK720906 DXG720900:DXG720906 EHC720900:EHC720906 EQY720900:EQY720906 FAU720900:FAU720906 FKQ720900:FKQ720906 FUM720900:FUM720906 GEI720900:GEI720906 GOE720900:GOE720906 GYA720900:GYA720906 HHW720900:HHW720906 HRS720900:HRS720906 IBO720900:IBO720906 ILK720900:ILK720906 IVG720900:IVG720906 JFC720900:JFC720906 JOY720900:JOY720906 JYU720900:JYU720906 KIQ720900:KIQ720906 KSM720900:KSM720906 LCI720900:LCI720906 LME720900:LME720906 LWA720900:LWA720906 MFW720900:MFW720906 MPS720900:MPS720906 MZO720900:MZO720906 NJK720900:NJK720906 NTG720900:NTG720906 ODC720900:ODC720906 OMY720900:OMY720906 OWU720900:OWU720906 PGQ720900:PGQ720906 PQM720900:PQM720906 QAI720900:QAI720906 QKE720900:QKE720906 QUA720900:QUA720906 RDW720900:RDW720906 RNS720900:RNS720906 RXO720900:RXO720906 SHK720900:SHK720906 SRG720900:SRG720906 TBC720900:TBC720906 TKY720900:TKY720906 TUU720900:TUU720906 UEQ720900:UEQ720906 UOM720900:UOM720906 UYI720900:UYI720906 VIE720900:VIE720906 VSA720900:VSA720906 WBW720900:WBW720906 WLS720900:WLS720906 WVO720900:WVO720906 G786436:G786442 JC786436:JC786442 SY786436:SY786442 ACU786436:ACU786442 AMQ786436:AMQ786442 AWM786436:AWM786442 BGI786436:BGI786442 BQE786436:BQE786442 CAA786436:CAA786442 CJW786436:CJW786442 CTS786436:CTS786442 DDO786436:DDO786442 DNK786436:DNK786442 DXG786436:DXG786442 EHC786436:EHC786442 EQY786436:EQY786442 FAU786436:FAU786442 FKQ786436:FKQ786442 FUM786436:FUM786442 GEI786436:GEI786442 GOE786436:GOE786442 GYA786436:GYA786442 HHW786436:HHW786442 HRS786436:HRS786442 IBO786436:IBO786442 ILK786436:ILK786442 IVG786436:IVG786442 JFC786436:JFC786442 JOY786436:JOY786442 JYU786436:JYU786442 KIQ786436:KIQ786442 KSM786436:KSM786442 LCI786436:LCI786442 LME786436:LME786442 LWA786436:LWA786442 MFW786436:MFW786442 MPS786436:MPS786442 MZO786436:MZO786442 NJK786436:NJK786442 NTG786436:NTG786442 ODC786436:ODC786442 OMY786436:OMY786442 OWU786436:OWU786442 PGQ786436:PGQ786442 PQM786436:PQM786442 QAI786436:QAI786442 QKE786436:QKE786442 QUA786436:QUA786442 RDW786436:RDW786442 RNS786436:RNS786442 RXO786436:RXO786442 SHK786436:SHK786442 SRG786436:SRG786442 TBC786436:TBC786442 TKY786436:TKY786442 TUU786436:TUU786442 UEQ786436:UEQ786442 UOM786436:UOM786442 UYI786436:UYI786442 VIE786436:VIE786442 VSA786436:VSA786442 WBW786436:WBW786442 WLS786436:WLS786442 WVO786436:WVO786442 G851972:G851978 JC851972:JC851978 SY851972:SY851978 ACU851972:ACU851978 AMQ851972:AMQ851978 AWM851972:AWM851978 BGI851972:BGI851978 BQE851972:BQE851978 CAA851972:CAA851978 CJW851972:CJW851978 CTS851972:CTS851978 DDO851972:DDO851978 DNK851972:DNK851978 DXG851972:DXG851978 EHC851972:EHC851978 EQY851972:EQY851978 FAU851972:FAU851978 FKQ851972:FKQ851978 FUM851972:FUM851978 GEI851972:GEI851978 GOE851972:GOE851978 GYA851972:GYA851978 HHW851972:HHW851978 HRS851972:HRS851978 IBO851972:IBO851978 ILK851972:ILK851978 IVG851972:IVG851978 JFC851972:JFC851978 JOY851972:JOY851978 JYU851972:JYU851978 KIQ851972:KIQ851978 KSM851972:KSM851978 LCI851972:LCI851978 LME851972:LME851978 LWA851972:LWA851978 MFW851972:MFW851978 MPS851972:MPS851978 MZO851972:MZO851978 NJK851972:NJK851978 NTG851972:NTG851978 ODC851972:ODC851978 OMY851972:OMY851978 OWU851972:OWU851978 PGQ851972:PGQ851978 PQM851972:PQM851978 QAI851972:QAI851978 QKE851972:QKE851978 QUA851972:QUA851978 RDW851972:RDW851978 RNS851972:RNS851978 RXO851972:RXO851978 SHK851972:SHK851978 SRG851972:SRG851978 TBC851972:TBC851978 TKY851972:TKY851978 TUU851972:TUU851978 UEQ851972:UEQ851978 UOM851972:UOM851978 UYI851972:UYI851978 VIE851972:VIE851978 VSA851972:VSA851978 WBW851972:WBW851978 WLS851972:WLS851978 WVO851972:WVO851978 G917508:G917514 JC917508:JC917514 SY917508:SY917514 ACU917508:ACU917514 AMQ917508:AMQ917514 AWM917508:AWM917514 BGI917508:BGI917514 BQE917508:BQE917514 CAA917508:CAA917514 CJW917508:CJW917514 CTS917508:CTS917514 DDO917508:DDO917514 DNK917508:DNK917514 DXG917508:DXG917514 EHC917508:EHC917514 EQY917508:EQY917514 FAU917508:FAU917514 FKQ917508:FKQ917514 FUM917508:FUM917514 GEI917508:GEI917514 GOE917508:GOE917514 GYA917508:GYA917514 HHW917508:HHW917514 HRS917508:HRS917514 IBO917508:IBO917514 ILK917508:ILK917514 IVG917508:IVG917514 JFC917508:JFC917514 JOY917508:JOY917514 JYU917508:JYU917514 KIQ917508:KIQ917514 KSM917508:KSM917514 LCI917508:LCI917514 LME917508:LME917514 LWA917508:LWA917514 MFW917508:MFW917514 MPS917508:MPS917514 MZO917508:MZO917514 NJK917508:NJK917514 NTG917508:NTG917514 ODC917508:ODC917514 OMY917508:OMY917514 OWU917508:OWU917514 PGQ917508:PGQ917514 PQM917508:PQM917514 QAI917508:QAI917514 QKE917508:QKE917514 QUA917508:QUA917514 RDW917508:RDW917514 RNS917508:RNS917514 RXO917508:RXO917514 SHK917508:SHK917514 SRG917508:SRG917514 TBC917508:TBC917514 TKY917508:TKY917514 TUU917508:TUU917514 UEQ917508:UEQ917514 UOM917508:UOM917514 UYI917508:UYI917514 VIE917508:VIE917514 VSA917508:VSA917514 WBW917508:WBW917514 WLS917508:WLS917514 WVO917508:WVO917514 G983044:G983050 JC983044:JC983050 SY983044:SY983050 ACU983044:ACU983050 AMQ983044:AMQ983050 AWM983044:AWM983050 BGI983044:BGI983050 BQE983044:BQE983050 CAA983044:CAA983050 CJW983044:CJW983050 CTS983044:CTS983050 DDO983044:DDO983050 DNK983044:DNK983050 DXG983044:DXG983050 EHC983044:EHC983050 EQY983044:EQY983050 FAU983044:FAU983050 FKQ983044:FKQ983050 FUM983044:FUM983050 GEI983044:GEI983050 GOE983044:GOE983050 GYA983044:GYA983050 HHW983044:HHW983050 HRS983044:HRS983050 IBO983044:IBO983050 ILK983044:ILK983050 IVG983044:IVG983050 JFC983044:JFC983050 JOY983044:JOY983050 JYU983044:JYU983050 KIQ983044:KIQ983050 KSM983044:KSM983050 LCI983044:LCI983050 LME983044:LME983050 LWA983044:LWA983050 MFW983044:MFW983050 MPS983044:MPS983050 MZO983044:MZO983050 NJK983044:NJK983050 NTG983044:NTG983050 ODC983044:ODC983050 OMY983044:OMY983050 OWU983044:OWU983050 PGQ983044:PGQ983050 PQM983044:PQM983050 QAI983044:QAI983050 QKE983044:QKE983050 QUA983044:QUA983050 RDW983044:RDW983050 RNS983044:RNS983050 RXO983044:RXO983050 SHK983044:SHK983050 SRG983044:SRG983050 TBC983044:TBC983050 TKY983044:TKY983050 TUU983044:TUU983050 UEQ983044:UEQ983050 UOM983044:UOM983050 UYI983044:UYI983050 VIE983044:VIE983050 VSA983044:VSA983050 WBW983044:WBW983050 WLS983044:WLS983050 WVO983044:WVO983050 G16:G30 JC16:JC30 SY16:SY30 ACU16:ACU30 AMQ16:AMQ30 AWM16:AWM30 BGI16:BGI30 BQE16:BQE30 CAA16:CAA30 CJW16:CJW30 CTS16:CTS30 DDO16:DDO30 DNK16:DNK30 DXG16:DXG30 EHC16:EHC30 EQY16:EQY30 FAU16:FAU30 FKQ16:FKQ30 FUM16:FUM30 GEI16:GEI30 GOE16:GOE30 GYA16:GYA30 HHW16:HHW30 HRS16:HRS30 IBO16:IBO30 ILK16:ILK30 IVG16:IVG30 JFC16:JFC30 JOY16:JOY30 JYU16:JYU30 KIQ16:KIQ30 KSM16:KSM30 LCI16:LCI30 LME16:LME30 LWA16:LWA30 MFW16:MFW30 MPS16:MPS30 MZO16:MZO30 NJK16:NJK30 NTG16:NTG30 ODC16:ODC30 OMY16:OMY30 OWU16:OWU30 PGQ16:PGQ30 PQM16:PQM30 QAI16:QAI30 QKE16:QKE30 QUA16:QUA30 RDW16:RDW30 RNS16:RNS30 RXO16:RXO30 SHK16:SHK30 SRG16:SRG30 TBC16:TBC30 TKY16:TKY30 TUU16:TUU30 UEQ16:UEQ30 UOM16:UOM30 UYI16:UYI30 VIE16:VIE30 VSA16:VSA30 WBW16:WBW30 WLS16:WLS30 WVO16:WVO30 G65552:G65566 JC65552:JC65566 SY65552:SY65566 ACU65552:ACU65566 AMQ65552:AMQ65566 AWM65552:AWM65566 BGI65552:BGI65566 BQE65552:BQE65566 CAA65552:CAA65566 CJW65552:CJW65566 CTS65552:CTS65566 DDO65552:DDO65566 DNK65552:DNK65566 DXG65552:DXG65566 EHC65552:EHC65566 EQY65552:EQY65566 FAU65552:FAU65566 FKQ65552:FKQ65566 FUM65552:FUM65566 GEI65552:GEI65566 GOE65552:GOE65566 GYA65552:GYA65566 HHW65552:HHW65566 HRS65552:HRS65566 IBO65552:IBO65566 ILK65552:ILK65566 IVG65552:IVG65566 JFC65552:JFC65566 JOY65552:JOY65566 JYU65552:JYU65566 KIQ65552:KIQ65566 KSM65552:KSM65566 LCI65552:LCI65566 LME65552:LME65566 LWA65552:LWA65566 MFW65552:MFW65566 MPS65552:MPS65566 MZO65552:MZO65566 NJK65552:NJK65566 NTG65552:NTG65566 ODC65552:ODC65566 OMY65552:OMY65566 OWU65552:OWU65566 PGQ65552:PGQ65566 PQM65552:PQM65566 QAI65552:QAI65566 QKE65552:QKE65566 QUA65552:QUA65566 RDW65552:RDW65566 RNS65552:RNS65566 RXO65552:RXO65566 SHK65552:SHK65566 SRG65552:SRG65566 TBC65552:TBC65566 TKY65552:TKY65566 TUU65552:TUU65566 UEQ65552:UEQ65566 UOM65552:UOM65566 UYI65552:UYI65566 VIE65552:VIE65566 VSA65552:VSA65566 WBW65552:WBW65566 WLS65552:WLS65566 WVO65552:WVO65566 G131088:G131102 JC131088:JC131102 SY131088:SY131102 ACU131088:ACU131102 AMQ131088:AMQ131102 AWM131088:AWM131102 BGI131088:BGI131102 BQE131088:BQE131102 CAA131088:CAA131102 CJW131088:CJW131102 CTS131088:CTS131102 DDO131088:DDO131102 DNK131088:DNK131102 DXG131088:DXG131102 EHC131088:EHC131102 EQY131088:EQY131102 FAU131088:FAU131102 FKQ131088:FKQ131102 FUM131088:FUM131102 GEI131088:GEI131102 GOE131088:GOE131102 GYA131088:GYA131102 HHW131088:HHW131102 HRS131088:HRS131102 IBO131088:IBO131102 ILK131088:ILK131102 IVG131088:IVG131102 JFC131088:JFC131102 JOY131088:JOY131102 JYU131088:JYU131102 KIQ131088:KIQ131102 KSM131088:KSM131102 LCI131088:LCI131102 LME131088:LME131102 LWA131088:LWA131102 MFW131088:MFW131102 MPS131088:MPS131102 MZO131088:MZO131102 NJK131088:NJK131102 NTG131088:NTG131102 ODC131088:ODC131102 OMY131088:OMY131102 OWU131088:OWU131102 PGQ131088:PGQ131102 PQM131088:PQM131102 QAI131088:QAI131102 QKE131088:QKE131102 QUA131088:QUA131102 RDW131088:RDW131102 RNS131088:RNS131102 RXO131088:RXO131102 SHK131088:SHK131102 SRG131088:SRG131102 TBC131088:TBC131102 TKY131088:TKY131102 TUU131088:TUU131102 UEQ131088:UEQ131102 UOM131088:UOM131102 UYI131088:UYI131102 VIE131088:VIE131102 VSA131088:VSA131102 WBW131088:WBW131102 WLS131088:WLS131102 WVO131088:WVO131102 G196624:G196638 JC196624:JC196638 SY196624:SY196638 ACU196624:ACU196638 AMQ196624:AMQ196638 AWM196624:AWM196638 BGI196624:BGI196638 BQE196624:BQE196638 CAA196624:CAA196638 CJW196624:CJW196638 CTS196624:CTS196638 DDO196624:DDO196638 DNK196624:DNK196638 DXG196624:DXG196638 EHC196624:EHC196638 EQY196624:EQY196638 FAU196624:FAU196638 FKQ196624:FKQ196638 FUM196624:FUM196638 GEI196624:GEI196638 GOE196624:GOE196638 GYA196624:GYA196638 HHW196624:HHW196638 HRS196624:HRS196638 IBO196624:IBO196638 ILK196624:ILK196638 IVG196624:IVG196638 JFC196624:JFC196638 JOY196624:JOY196638 JYU196624:JYU196638 KIQ196624:KIQ196638 KSM196624:KSM196638 LCI196624:LCI196638 LME196624:LME196638 LWA196624:LWA196638 MFW196624:MFW196638 MPS196624:MPS196638 MZO196624:MZO196638 NJK196624:NJK196638 NTG196624:NTG196638 ODC196624:ODC196638 OMY196624:OMY196638 OWU196624:OWU196638 PGQ196624:PGQ196638 PQM196624:PQM196638 QAI196624:QAI196638 QKE196624:QKE196638 QUA196624:QUA196638 RDW196624:RDW196638 RNS196624:RNS196638 RXO196624:RXO196638 SHK196624:SHK196638 SRG196624:SRG196638 TBC196624:TBC196638 TKY196624:TKY196638 TUU196624:TUU196638 UEQ196624:UEQ196638 UOM196624:UOM196638 UYI196624:UYI196638 VIE196624:VIE196638 VSA196624:VSA196638 WBW196624:WBW196638 WLS196624:WLS196638 WVO196624:WVO196638 G262160:G262174 JC262160:JC262174 SY262160:SY262174 ACU262160:ACU262174 AMQ262160:AMQ262174 AWM262160:AWM262174 BGI262160:BGI262174 BQE262160:BQE262174 CAA262160:CAA262174 CJW262160:CJW262174 CTS262160:CTS262174 DDO262160:DDO262174 DNK262160:DNK262174 DXG262160:DXG262174 EHC262160:EHC262174 EQY262160:EQY262174 FAU262160:FAU262174 FKQ262160:FKQ262174 FUM262160:FUM262174 GEI262160:GEI262174 GOE262160:GOE262174 GYA262160:GYA262174 HHW262160:HHW262174 HRS262160:HRS262174 IBO262160:IBO262174 ILK262160:ILK262174 IVG262160:IVG262174 JFC262160:JFC262174 JOY262160:JOY262174 JYU262160:JYU262174 KIQ262160:KIQ262174 KSM262160:KSM262174 LCI262160:LCI262174 LME262160:LME262174 LWA262160:LWA262174 MFW262160:MFW262174 MPS262160:MPS262174 MZO262160:MZO262174 NJK262160:NJK262174 NTG262160:NTG262174 ODC262160:ODC262174 OMY262160:OMY262174 OWU262160:OWU262174 PGQ262160:PGQ262174 PQM262160:PQM262174 QAI262160:QAI262174 QKE262160:QKE262174 QUA262160:QUA262174 RDW262160:RDW262174 RNS262160:RNS262174 RXO262160:RXO262174 SHK262160:SHK262174 SRG262160:SRG262174 TBC262160:TBC262174 TKY262160:TKY262174 TUU262160:TUU262174 UEQ262160:UEQ262174 UOM262160:UOM262174 UYI262160:UYI262174 VIE262160:VIE262174 VSA262160:VSA262174 WBW262160:WBW262174 WLS262160:WLS262174 WVO262160:WVO262174 G327696:G327710 JC327696:JC327710 SY327696:SY327710 ACU327696:ACU327710 AMQ327696:AMQ327710 AWM327696:AWM327710 BGI327696:BGI327710 BQE327696:BQE327710 CAA327696:CAA327710 CJW327696:CJW327710 CTS327696:CTS327710 DDO327696:DDO327710 DNK327696:DNK327710 DXG327696:DXG327710 EHC327696:EHC327710 EQY327696:EQY327710 FAU327696:FAU327710 FKQ327696:FKQ327710 FUM327696:FUM327710 GEI327696:GEI327710 GOE327696:GOE327710 GYA327696:GYA327710 HHW327696:HHW327710 HRS327696:HRS327710 IBO327696:IBO327710 ILK327696:ILK327710 IVG327696:IVG327710 JFC327696:JFC327710 JOY327696:JOY327710 JYU327696:JYU327710 KIQ327696:KIQ327710 KSM327696:KSM327710 LCI327696:LCI327710 LME327696:LME327710 LWA327696:LWA327710 MFW327696:MFW327710 MPS327696:MPS327710 MZO327696:MZO327710 NJK327696:NJK327710 NTG327696:NTG327710 ODC327696:ODC327710 OMY327696:OMY327710 OWU327696:OWU327710 PGQ327696:PGQ327710 PQM327696:PQM327710 QAI327696:QAI327710 QKE327696:QKE327710 QUA327696:QUA327710 RDW327696:RDW327710 RNS327696:RNS327710 RXO327696:RXO327710 SHK327696:SHK327710 SRG327696:SRG327710 TBC327696:TBC327710 TKY327696:TKY327710 TUU327696:TUU327710 UEQ327696:UEQ327710 UOM327696:UOM327710 UYI327696:UYI327710 VIE327696:VIE327710 VSA327696:VSA327710 WBW327696:WBW327710 WLS327696:WLS327710 WVO327696:WVO327710 G393232:G393246 JC393232:JC393246 SY393232:SY393246 ACU393232:ACU393246 AMQ393232:AMQ393246 AWM393232:AWM393246 BGI393232:BGI393246 BQE393232:BQE393246 CAA393232:CAA393246 CJW393232:CJW393246 CTS393232:CTS393246 DDO393232:DDO393246 DNK393232:DNK393246 DXG393232:DXG393246 EHC393232:EHC393246 EQY393232:EQY393246 FAU393232:FAU393246 FKQ393232:FKQ393246 FUM393232:FUM393246 GEI393232:GEI393246 GOE393232:GOE393246 GYA393232:GYA393246 HHW393232:HHW393246 HRS393232:HRS393246 IBO393232:IBO393246 ILK393232:ILK393246 IVG393232:IVG393246 JFC393232:JFC393246 JOY393232:JOY393246 JYU393232:JYU393246 KIQ393232:KIQ393246 KSM393232:KSM393246 LCI393232:LCI393246 LME393232:LME393246 LWA393232:LWA393246 MFW393232:MFW393246 MPS393232:MPS393246 MZO393232:MZO393246 NJK393232:NJK393246 NTG393232:NTG393246 ODC393232:ODC393246 OMY393232:OMY393246 OWU393232:OWU393246 PGQ393232:PGQ393246 PQM393232:PQM393246 QAI393232:QAI393246 QKE393232:QKE393246 QUA393232:QUA393246 RDW393232:RDW393246 RNS393232:RNS393246 RXO393232:RXO393246 SHK393232:SHK393246 SRG393232:SRG393246 TBC393232:TBC393246 TKY393232:TKY393246 TUU393232:TUU393246 UEQ393232:UEQ393246 UOM393232:UOM393246 UYI393232:UYI393246 VIE393232:VIE393246 VSA393232:VSA393246 WBW393232:WBW393246 WLS393232:WLS393246 WVO393232:WVO393246 G458768:G458782 JC458768:JC458782 SY458768:SY458782 ACU458768:ACU458782 AMQ458768:AMQ458782 AWM458768:AWM458782 BGI458768:BGI458782 BQE458768:BQE458782 CAA458768:CAA458782 CJW458768:CJW458782 CTS458768:CTS458782 DDO458768:DDO458782 DNK458768:DNK458782 DXG458768:DXG458782 EHC458768:EHC458782 EQY458768:EQY458782 FAU458768:FAU458782 FKQ458768:FKQ458782 FUM458768:FUM458782 GEI458768:GEI458782 GOE458768:GOE458782 GYA458768:GYA458782 HHW458768:HHW458782 HRS458768:HRS458782 IBO458768:IBO458782 ILK458768:ILK458782 IVG458768:IVG458782 JFC458768:JFC458782 JOY458768:JOY458782 JYU458768:JYU458782 KIQ458768:KIQ458782 KSM458768:KSM458782 LCI458768:LCI458782 LME458768:LME458782 LWA458768:LWA458782 MFW458768:MFW458782 MPS458768:MPS458782 MZO458768:MZO458782 NJK458768:NJK458782 NTG458768:NTG458782 ODC458768:ODC458782 OMY458768:OMY458782 OWU458768:OWU458782 PGQ458768:PGQ458782 PQM458768:PQM458782 QAI458768:QAI458782 QKE458768:QKE458782 QUA458768:QUA458782 RDW458768:RDW458782 RNS458768:RNS458782 RXO458768:RXO458782 SHK458768:SHK458782 SRG458768:SRG458782 TBC458768:TBC458782 TKY458768:TKY458782 TUU458768:TUU458782 UEQ458768:UEQ458782 UOM458768:UOM458782 UYI458768:UYI458782 VIE458768:VIE458782 VSA458768:VSA458782 WBW458768:WBW458782 WLS458768:WLS458782 WVO458768:WVO458782 G524304:G524318 JC524304:JC524318 SY524304:SY524318 ACU524304:ACU524318 AMQ524304:AMQ524318 AWM524304:AWM524318 BGI524304:BGI524318 BQE524304:BQE524318 CAA524304:CAA524318 CJW524304:CJW524318 CTS524304:CTS524318 DDO524304:DDO524318 DNK524304:DNK524318 DXG524304:DXG524318 EHC524304:EHC524318 EQY524304:EQY524318 FAU524304:FAU524318 FKQ524304:FKQ524318 FUM524304:FUM524318 GEI524304:GEI524318 GOE524304:GOE524318 GYA524304:GYA524318 HHW524304:HHW524318 HRS524304:HRS524318 IBO524304:IBO524318 ILK524304:ILK524318 IVG524304:IVG524318 JFC524304:JFC524318 JOY524304:JOY524318 JYU524304:JYU524318 KIQ524304:KIQ524318 KSM524304:KSM524318 LCI524304:LCI524318 LME524304:LME524318 LWA524304:LWA524318 MFW524304:MFW524318 MPS524304:MPS524318 MZO524304:MZO524318 NJK524304:NJK524318 NTG524304:NTG524318 ODC524304:ODC524318 OMY524304:OMY524318 OWU524304:OWU524318 PGQ524304:PGQ524318 PQM524304:PQM524318 QAI524304:QAI524318 QKE524304:QKE524318 QUA524304:QUA524318 RDW524304:RDW524318 RNS524304:RNS524318 RXO524304:RXO524318 SHK524304:SHK524318 SRG524304:SRG524318 TBC524304:TBC524318 TKY524304:TKY524318 TUU524304:TUU524318 UEQ524304:UEQ524318 UOM524304:UOM524318 UYI524304:UYI524318 VIE524304:VIE524318 VSA524304:VSA524318 WBW524304:WBW524318 WLS524304:WLS524318 WVO524304:WVO524318 G589840:G589854 JC589840:JC589854 SY589840:SY589854 ACU589840:ACU589854 AMQ589840:AMQ589854 AWM589840:AWM589854 BGI589840:BGI589854 BQE589840:BQE589854 CAA589840:CAA589854 CJW589840:CJW589854 CTS589840:CTS589854 DDO589840:DDO589854 DNK589840:DNK589854 DXG589840:DXG589854 EHC589840:EHC589854 EQY589840:EQY589854 FAU589840:FAU589854 FKQ589840:FKQ589854 FUM589840:FUM589854 GEI589840:GEI589854 GOE589840:GOE589854 GYA589840:GYA589854 HHW589840:HHW589854 HRS589840:HRS589854 IBO589840:IBO589854 ILK589840:ILK589854 IVG589840:IVG589854 JFC589840:JFC589854 JOY589840:JOY589854 JYU589840:JYU589854 KIQ589840:KIQ589854 KSM589840:KSM589854 LCI589840:LCI589854 LME589840:LME589854 LWA589840:LWA589854 MFW589840:MFW589854 MPS589840:MPS589854 MZO589840:MZO589854 NJK589840:NJK589854 NTG589840:NTG589854 ODC589840:ODC589854 OMY589840:OMY589854 OWU589840:OWU589854 PGQ589840:PGQ589854 PQM589840:PQM589854 QAI589840:QAI589854 QKE589840:QKE589854 QUA589840:QUA589854 RDW589840:RDW589854 RNS589840:RNS589854 RXO589840:RXO589854 SHK589840:SHK589854 SRG589840:SRG589854 TBC589840:TBC589854 TKY589840:TKY589854 TUU589840:TUU589854 UEQ589840:UEQ589854 UOM589840:UOM589854 UYI589840:UYI589854 VIE589840:VIE589854 VSA589840:VSA589854 WBW589840:WBW589854 WLS589840:WLS589854 WVO589840:WVO589854 G655376:G655390 JC655376:JC655390 SY655376:SY655390 ACU655376:ACU655390 AMQ655376:AMQ655390 AWM655376:AWM655390 BGI655376:BGI655390 BQE655376:BQE655390 CAA655376:CAA655390 CJW655376:CJW655390 CTS655376:CTS655390 DDO655376:DDO655390 DNK655376:DNK655390 DXG655376:DXG655390 EHC655376:EHC655390 EQY655376:EQY655390 FAU655376:FAU655390 FKQ655376:FKQ655390 FUM655376:FUM655390 GEI655376:GEI655390 GOE655376:GOE655390 GYA655376:GYA655390 HHW655376:HHW655390 HRS655376:HRS655390 IBO655376:IBO655390 ILK655376:ILK655390 IVG655376:IVG655390 JFC655376:JFC655390 JOY655376:JOY655390 JYU655376:JYU655390 KIQ655376:KIQ655390 KSM655376:KSM655390 LCI655376:LCI655390 LME655376:LME655390 LWA655376:LWA655390 MFW655376:MFW655390 MPS655376:MPS655390 MZO655376:MZO655390 NJK655376:NJK655390 NTG655376:NTG655390 ODC655376:ODC655390 OMY655376:OMY655390 OWU655376:OWU655390 PGQ655376:PGQ655390 PQM655376:PQM655390 QAI655376:QAI655390 QKE655376:QKE655390 QUA655376:QUA655390 RDW655376:RDW655390 RNS655376:RNS655390 RXO655376:RXO655390 SHK655376:SHK655390 SRG655376:SRG655390 TBC655376:TBC655390 TKY655376:TKY655390 TUU655376:TUU655390 UEQ655376:UEQ655390 UOM655376:UOM655390 UYI655376:UYI655390 VIE655376:VIE655390 VSA655376:VSA655390 WBW655376:WBW655390 WLS655376:WLS655390 WVO655376:WVO655390 G720912:G720926 JC720912:JC720926 SY720912:SY720926 ACU720912:ACU720926 AMQ720912:AMQ720926 AWM720912:AWM720926 BGI720912:BGI720926 BQE720912:BQE720926 CAA720912:CAA720926 CJW720912:CJW720926 CTS720912:CTS720926 DDO720912:DDO720926 DNK720912:DNK720926 DXG720912:DXG720926 EHC720912:EHC720926 EQY720912:EQY720926 FAU720912:FAU720926 FKQ720912:FKQ720926 FUM720912:FUM720926 GEI720912:GEI720926 GOE720912:GOE720926 GYA720912:GYA720926 HHW720912:HHW720926 HRS720912:HRS720926 IBO720912:IBO720926 ILK720912:ILK720926 IVG720912:IVG720926 JFC720912:JFC720926 JOY720912:JOY720926 JYU720912:JYU720926 KIQ720912:KIQ720926 KSM720912:KSM720926 LCI720912:LCI720926 LME720912:LME720926 LWA720912:LWA720926 MFW720912:MFW720926 MPS720912:MPS720926 MZO720912:MZO720926 NJK720912:NJK720926 NTG720912:NTG720926 ODC720912:ODC720926 OMY720912:OMY720926 OWU720912:OWU720926 PGQ720912:PGQ720926 PQM720912:PQM720926 QAI720912:QAI720926 QKE720912:QKE720926 QUA720912:QUA720926 RDW720912:RDW720926 RNS720912:RNS720926 RXO720912:RXO720926 SHK720912:SHK720926 SRG720912:SRG720926 TBC720912:TBC720926 TKY720912:TKY720926 TUU720912:TUU720926 UEQ720912:UEQ720926 UOM720912:UOM720926 UYI720912:UYI720926 VIE720912:VIE720926 VSA720912:VSA720926 WBW720912:WBW720926 WLS720912:WLS720926 WVO720912:WVO720926 G786448:G786462 JC786448:JC786462 SY786448:SY786462 ACU786448:ACU786462 AMQ786448:AMQ786462 AWM786448:AWM786462 BGI786448:BGI786462 BQE786448:BQE786462 CAA786448:CAA786462 CJW786448:CJW786462 CTS786448:CTS786462 DDO786448:DDO786462 DNK786448:DNK786462 DXG786448:DXG786462 EHC786448:EHC786462 EQY786448:EQY786462 FAU786448:FAU786462 FKQ786448:FKQ786462 FUM786448:FUM786462 GEI786448:GEI786462 GOE786448:GOE786462 GYA786448:GYA786462 HHW786448:HHW786462 HRS786448:HRS786462 IBO786448:IBO786462 ILK786448:ILK786462 IVG786448:IVG786462 JFC786448:JFC786462 JOY786448:JOY786462 JYU786448:JYU786462 KIQ786448:KIQ786462 KSM786448:KSM786462 LCI786448:LCI786462 LME786448:LME786462 LWA786448:LWA786462 MFW786448:MFW786462 MPS786448:MPS786462 MZO786448:MZO786462 NJK786448:NJK786462 NTG786448:NTG786462 ODC786448:ODC786462 OMY786448:OMY786462 OWU786448:OWU786462 PGQ786448:PGQ786462 PQM786448:PQM786462 QAI786448:QAI786462 QKE786448:QKE786462 QUA786448:QUA786462 RDW786448:RDW786462 RNS786448:RNS786462 RXO786448:RXO786462 SHK786448:SHK786462 SRG786448:SRG786462 TBC786448:TBC786462 TKY786448:TKY786462 TUU786448:TUU786462 UEQ786448:UEQ786462 UOM786448:UOM786462 UYI786448:UYI786462 VIE786448:VIE786462 VSA786448:VSA786462 WBW786448:WBW786462 WLS786448:WLS786462 WVO786448:WVO786462 G851984:G851998 JC851984:JC851998 SY851984:SY851998 ACU851984:ACU851998 AMQ851984:AMQ851998 AWM851984:AWM851998 BGI851984:BGI851998 BQE851984:BQE851998 CAA851984:CAA851998 CJW851984:CJW851998 CTS851984:CTS851998 DDO851984:DDO851998 DNK851984:DNK851998 DXG851984:DXG851998 EHC851984:EHC851998 EQY851984:EQY851998 FAU851984:FAU851998 FKQ851984:FKQ851998 FUM851984:FUM851998 GEI851984:GEI851998 GOE851984:GOE851998 GYA851984:GYA851998 HHW851984:HHW851998 HRS851984:HRS851998 IBO851984:IBO851998 ILK851984:ILK851998 IVG851984:IVG851998 JFC851984:JFC851998 JOY851984:JOY851998 JYU851984:JYU851998 KIQ851984:KIQ851998 KSM851984:KSM851998 LCI851984:LCI851998 LME851984:LME851998 LWA851984:LWA851998 MFW851984:MFW851998 MPS851984:MPS851998 MZO851984:MZO851998 NJK851984:NJK851998 NTG851984:NTG851998 ODC851984:ODC851998 OMY851984:OMY851998 OWU851984:OWU851998 PGQ851984:PGQ851998 PQM851984:PQM851998 QAI851984:QAI851998 QKE851984:QKE851998 QUA851984:QUA851998 RDW851984:RDW851998 RNS851984:RNS851998 RXO851984:RXO851998 SHK851984:SHK851998 SRG851984:SRG851998 TBC851984:TBC851998 TKY851984:TKY851998 TUU851984:TUU851998 UEQ851984:UEQ851998 UOM851984:UOM851998 UYI851984:UYI851998 VIE851984:VIE851998 VSA851984:VSA851998 WBW851984:WBW851998 WLS851984:WLS851998 WVO851984:WVO851998 G917520:G917534 JC917520:JC917534 SY917520:SY917534 ACU917520:ACU917534 AMQ917520:AMQ917534 AWM917520:AWM917534 BGI917520:BGI917534 BQE917520:BQE917534 CAA917520:CAA917534 CJW917520:CJW917534 CTS917520:CTS917534 DDO917520:DDO917534 DNK917520:DNK917534 DXG917520:DXG917534 EHC917520:EHC917534 EQY917520:EQY917534 FAU917520:FAU917534 FKQ917520:FKQ917534 FUM917520:FUM917534 GEI917520:GEI917534 GOE917520:GOE917534 GYA917520:GYA917534 HHW917520:HHW917534 HRS917520:HRS917534 IBO917520:IBO917534 ILK917520:ILK917534 IVG917520:IVG917534 JFC917520:JFC917534 JOY917520:JOY917534 JYU917520:JYU917534 KIQ917520:KIQ917534 KSM917520:KSM917534 LCI917520:LCI917534 LME917520:LME917534 LWA917520:LWA917534 MFW917520:MFW917534 MPS917520:MPS917534 MZO917520:MZO917534 NJK917520:NJK917534 NTG917520:NTG917534 ODC917520:ODC917534 OMY917520:OMY917534 OWU917520:OWU917534 PGQ917520:PGQ917534 PQM917520:PQM917534 QAI917520:QAI917534 QKE917520:QKE917534 QUA917520:QUA917534 RDW917520:RDW917534 RNS917520:RNS917534 RXO917520:RXO917534 SHK917520:SHK917534 SRG917520:SRG917534 TBC917520:TBC917534 TKY917520:TKY917534 TUU917520:TUU917534 UEQ917520:UEQ917534 UOM917520:UOM917534 UYI917520:UYI917534 VIE917520:VIE917534 VSA917520:VSA917534 WBW917520:WBW917534 WLS917520:WLS917534 WVO917520:WVO917534 G983056:G983070 JC983056:JC983070 SY983056:SY983070 ACU983056:ACU983070 AMQ983056:AMQ983070 AWM983056:AWM983070 BGI983056:BGI983070 BQE983056:BQE983070 CAA983056:CAA983070 CJW983056:CJW983070 CTS983056:CTS983070 DDO983056:DDO983070 DNK983056:DNK983070 DXG983056:DXG983070 EHC983056:EHC983070 EQY983056:EQY983070 FAU983056:FAU983070 FKQ983056:FKQ983070 FUM983056:FUM983070 GEI983056:GEI983070 GOE983056:GOE983070 GYA983056:GYA983070 HHW983056:HHW983070 HRS983056:HRS983070 IBO983056:IBO983070 ILK983056:ILK983070 IVG983056:IVG983070 JFC983056:JFC983070 JOY983056:JOY983070 JYU983056:JYU983070 KIQ983056:KIQ983070 KSM983056:KSM983070 LCI983056:LCI983070 LME983056:LME983070 LWA983056:LWA983070 MFW983056:MFW983070 MPS983056:MPS983070 MZO983056:MZO983070 NJK983056:NJK983070 NTG983056:NTG983070 ODC983056:ODC983070 OMY983056:OMY983070 OWU983056:OWU983070 PGQ983056:PGQ983070 PQM983056:PQM983070 QAI983056:QAI983070 QKE983056:QKE983070 QUA983056:QUA983070 RDW983056:RDW983070 RNS983056:RNS983070 RXO983056:RXO983070 SHK983056:SHK983070 SRG983056:SRG983070 TBC983056:TBC983070 TKY983056:TKY983070 TUU983056:TUU983070 UEQ983056:UEQ983070 UOM983056:UOM983070 UYI983056:UYI983070 VIE983056:VIE983070 VSA983056:VSA983070 WBW983056:WBW983070 WLS983056:WLS983070 WVO983056:WVO983070">
+      <formula1>"Planned,Ongoing,Released,Unplanned"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentacion/Product Backlog 1.xlsx
+++ b/Documentacion/Product Backlog 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -730,33 +730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -865,6 +838,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,40 +1596,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="2:10" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +1984,7 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
@@ -2684,730 +2684,730 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="3" spans="1:11" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="B1" s="19"/>
+    </row>
+    <row r="3" spans="1:11" s="23" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="25">
         <f>IF(OR(B16="",A4=""),"",B16)</f>
         <v>44452</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="24">
         <f>IF(A4="","",SUMIF(J$16:J$16,A4,C$16:C$16))</f>
         <v>7</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="25">
         <f>IF(OR(B4="",C4=""),"",B4+C4-1)</f>
         <v>44458</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="24">
         <v>10</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="24">
         <v>15</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="27">
         <v>44465</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="29">
         <f>(F4/E4)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="25">
         <f>IF(A5="","",B4+C4)</f>
         <v>44459</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="24">
         <f>IF(A5="","",SUMIF(J$16:J$17,A5,C$16:C$17))</f>
         <v>0</v>
       </c>
-      <c r="D5" s="34">
-        <f t="shared" ref="D4:D10" si="0">IF(OR(B5="",C5=""),"",B5+C5-1)</f>
+      <c r="D5" s="25">
+        <f t="shared" ref="D5:D10" si="0">IF(OR(B5="",C5=""),"",B5+C5-1)</f>
         <v>44458</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="24">
         <v>14</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="24">
         <v>15</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="27">
         <v>44465</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="29">
         <f>(F5/E5)</f>
         <v>1.0714285714285714</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="25">
         <f>IF(A6="","",B5+C5)</f>
         <v>44459</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="24">
         <f>IF(A6="","",SUMIF(J$16:J$18,A6,C$16:C$18))</f>
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="25">
         <f t="shared" si="0"/>
         <v>44458</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="24">
         <f>IF(A6="","",SUMIF(J$16:J$30,'[1]Release Plan'!A6,E$16:E$30))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="24">
         <f>IF(A6="","",SUMIF(J$16:J$30,'[1]Release Plan'!A6,F$16:F$30))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="str">
-        <f t="shared" ref="C4:C10" si="1">IF(A7="","",SUMIF(J$16:J$30,A7,C$16:C$30))</f>
-        <v/>
-      </c>
-      <c r="D7" s="40" t="str">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="str">
+        <f t="shared" ref="C7:C10" si="1">IF(A7="","",SUMIF(J$16:J$30,A7,C$16:C$30))</f>
+        <v/>
+      </c>
+      <c r="D7" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E7" s="41" t="str">
+      <c r="E7" s="32" t="str">
         <f>IF(A7="","",SUMIF(J$16:J$30,'[1]Release Plan'!A7,E$16:E$30))</f>
         <v/>
       </c>
-      <c r="F7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
+      <c r="F7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40" t="str">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="str">
         <f>IF(OR(B20="",A8=""),"",B20)</f>
         <v/>
       </c>
-      <c r="C8" s="41" t="str">
+      <c r="C8" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D8" s="40" t="str">
+      <c r="D8" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="41" t="str">
+      <c r="E8" s="32" t="str">
         <f>IF(A8="","",SUMIF(J$16:J$30,'[1]Release Plan'!A8,E$16:E$30))</f>
         <v/>
       </c>
-      <c r="F8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="45"/>
+      <c r="F8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="36"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41" t="str">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D9" s="40" t="str">
+      <c r="D9" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="41" t="str">
+      <c r="E9" s="32" t="str">
         <f>IF(A9="","",SUMIF(J$16:J$30,'[1]Release Plan'!A9,E$16:E$30))</f>
         <v/>
       </c>
-      <c r="F9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="45"/>
+      <c r="F9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="str">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D10" s="47" t="str">
+      <c r="D10" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E10" s="48" t="str">
+      <c r="E10" s="39" t="str">
         <f>IF(A10="","",SUMIF(J$16:J$30,'[1]Release Plan'!A10,E$16:E$30))</f>
         <v/>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="44"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="32" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:11" s="23" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="31" t="s">
+      <c r="K15" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="24">
         <v>1</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="25">
         <v>44452</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="45">
         <v>7</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="25">
         <v>44465</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="24">
         <v>10</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="24">
         <v>15</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="46">
         <v>44465</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="45">
         <v>1</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="29">
         <f>(F16/E16)-1</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="24">
         <v>2</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="25">
         <v>44452</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="45">
         <v>14</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="25">
         <f>IF(AND(B17&lt;&gt;"",C17&lt;&gt;""),B17+C17-1,"")</f>
         <v>44465</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="24">
         <v>14</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="24">
         <v>15</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="48">
         <v>44465</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="45">
         <v>1</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="29">
         <f>(F17/E17)-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="24">
         <v>3</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="25">
         <v>44459</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="45">
         <v>14</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="25">
         <f>IF(AND(B18&lt;&gt;"",C18&lt;&gt;""),B18+C18-1,"")</f>
         <v>44472</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="24">
         <v>23</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="35" t="s">
+      <c r="F18" s="24"/>
+      <c r="G18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="54">
+      <c r="H18" s="48"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="45">
         <v>1</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="29">
         <f>(F18/E18)-1</f>
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="24">
         <v>4</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="25">
         <v>44466</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="45">
         <v>14</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="25">
         <f>IF(AND(B19&lt;&gt;"",C19&lt;&gt;""),B19+C19-1,"")</f>
         <v>44479</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="24">
         <v>6</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="35" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="54">
+      <c r="H19" s="48"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="45">
         <v>2</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="29">
         <f>(F19/E19)-1</f>
         <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="24">
         <v>5</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="25">
         <v>44473</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="45">
         <v>7</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="25">
         <f>IF(AND(B20&lt;&gt;"",C20&lt;&gt;""),B20+C20-1,"")</f>
         <v>44479</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="24">
         <v>0</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="54">
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="45">
         <v>2</v>
       </c>
-      <c r="K20" s="38" t="e">
+      <c r="K20" s="29" t="e">
         <f>(F20/E20)-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="24">
         <v>6</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="25">
         <v>44480</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="45">
         <v>14</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="25">
         <f>IF(AND(B21&lt;&gt;"",C21&lt;&gt;""),B21+C21-1,"")</f>
         <v>44493</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="24">
         <v>0</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="35" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="54">
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="45">
         <v>3</v>
       </c>
-      <c r="K21" s="38"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="59" t="str">
-        <f t="shared" ref="B17:B30" si="2">IF(AND(B21&lt;&gt;"",C21&lt;&gt;"",C22&lt;&gt;""),B21+C21,"")</f>
-        <v/>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="59" t="str">
-        <f t="shared" ref="D16:D30" si="3">IF(AND(B22&lt;&gt;"",C22&lt;&gt;""),B22+C22-1,"")</f>
-        <v/>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="50" t="str">
+        <f t="shared" ref="B22:B30" si="2">IF(AND(B21&lt;&gt;"",C21&lt;&gt;"",C22&lt;&gt;""),B21+C21,"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="50" t="str">
+        <f t="shared" ref="D22:D30" si="3">IF(AND(B22&lt;&gt;"",C22&lt;&gt;""),B22+C22-1,"")</f>
+        <v/>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
       <c r="G22" t="str">
         <f t="shared" ref="G22:G30" si="4">IF(AND(OR(G21="Planned",G21="Ongoing"),C22&lt;&gt;""),"Planned","Unplanned")</f>
         <v>Unplanned</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="44"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="str">
+      <c r="A23" s="32" t="str">
         <f>IF(AND(B23&lt;&gt;"",C23&lt;&gt;""),A22+1,"")</f>
         <v/>
       </c>
-      <c r="B23" s="59" t="str">
+      <c r="B23" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="59" t="str">
+      <c r="C23" s="20"/>
+      <c r="D23" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E23" s="41" t="str">
+      <c r="E23" s="32" t="str">
         <f>IF(A23="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A23,'[2]Product Backlog'!D$5:D$79))</f>
         <v/>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="32"/>
       <c r="G23" t="str">
         <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="45"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="str">
+      <c r="A24" s="32" t="str">
         <f t="shared" ref="A24:A30" si="5">IF(AND(B24&lt;&gt;"",C24&lt;&gt;""),A23+1,"")</f>
         <v/>
       </c>
-      <c r="B24" s="59" t="str">
+      <c r="B24" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="59" t="str">
+      <c r="C24" s="20"/>
+      <c r="D24" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E24" s="41" t="str">
+      <c r="E24" s="32" t="str">
         <f>IF(A24="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A24,'[2]Product Backlog'!D$5:D$79))</f>
         <v/>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="32"/>
       <c r="G24" t="str">
         <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="I24" s="63"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="45"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="str">
+      <c r="A25" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B25" s="59" t="str">
+      <c r="B25" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="59" t="str">
+      <c r="C25" s="20"/>
+      <c r="D25" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E25" s="41" t="str">
+      <c r="E25" s="32" t="str">
         <f>IF(A25="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A25,'[2]Product Backlog'!D$5:D$79))</f>
         <v/>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="32"/>
       <c r="G25" t="str">
         <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="I25" s="63"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="45"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="str">
+      <c r="A26" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B26" s="59" t="str">
+      <c r="B26" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="59" t="str">
+      <c r="C26" s="20"/>
+      <c r="D26" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E26" s="41" t="str">
+      <c r="E26" s="32" t="str">
         <f>IF(A26="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A26,'[2]Product Backlog'!D$5:D$79))</f>
         <v/>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="32"/>
       <c r="G26" t="str">
         <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="I26" s="63"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="45"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="str">
+      <c r="A27" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B27" s="59" t="str">
+      <c r="B27" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="59" t="str">
+      <c r="C27" s="20"/>
+      <c r="D27" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E27" s="41" t="str">
+      <c r="E27" s="32" t="str">
         <f>IF(A27="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A27,'[2]Product Backlog'!D$5:D$79))</f>
         <v/>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="32"/>
       <c r="G27" t="str">
         <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="I27" s="63"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="45"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="str">
+      <c r="A28" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B28" s="59" t="str">
+      <c r="B28" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="59" t="str">
+      <c r="C28" s="20"/>
+      <c r="D28" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E28" s="41" t="str">
+      <c r="E28" s="32" t="str">
         <f>IF(A28="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A28,'[2]Product Backlog'!D$5:D$79))</f>
         <v/>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="32"/>
       <c r="G28" t="str">
         <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="45"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="str">
+      <c r="A29" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B29" s="59" t="str">
+      <c r="B29" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="59" t="str">
+      <c r="C29" s="20"/>
+      <c r="D29" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E29" s="41" t="str">
+      <c r="E29" s="32" t="str">
         <f>IF(A29="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A29,'[2]Product Backlog'!D$5:D$79))</f>
         <v/>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="32"/>
       <c r="G29" t="str">
         <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="45"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="str">
+      <c r="A30" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B30" s="59" t="str">
+      <c r="B30" s="50" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="59" t="str">
+      <c r="C30" s="20"/>
+      <c r="D30" s="50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E30" s="41" t="str">
+      <c r="E30" s="32" t="str">
         <f>IF(A30="","",SUMIF('[2]Product Backlog'!E$5:E$79,'[1]Release Plan'!A30,'[2]Product Backlog'!D$5:D$79))</f>
         <v/>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="32"/>
       <c r="G30" t="str">
         <f t="shared" si="4"/>
         <v>Unplanned</v>
       </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="71" t="e">
+      <c r="E31" s="62" t="e">
         <f>SUMIF('[2]Product Backlog'!E$5:E$79,"",'[2]Product Backlog'!D$5:D$79)-SUMIF('[2]Product Backlog'!C$5:C$79,"Removed",'[2]Product Backlog'!D$5:D$79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" s="68"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="66"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="70" t="s">
+      <c r="D32" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="59">
         <f>SUM(E16:E30)</f>
         <v>53</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="59">
         <f>SUM(F16:F30)</f>
         <v>30</v>
       </c>
